--- a/results/test_set_prediction.xlsx
+++ b/results/test_set_prediction.xlsx
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GFFAFIPKIISSPLFKTLLSAVGSALSSSGEQE</t>
+          <t>GLFVGLAKVAAHNNPAIAEHFQA</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -466,11 +466,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GWLRKIGKKIERVGQHTRDATIQVLGIAQQAANVAATAR</t>
+          <t>MAIERGAKVRILRKESYWYREVGTVASVDKSEKTIYPVTVRFEKVNYSGINTNNFGVSELEEVEA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -479,59 +479,59 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ALPVINLDYSPFFKVQFNFSHYHQWEEDQSFSTCSRANEKTTSLLKND</t>
+          <t>GVLDILKGAAKDLAGHVATKVINKI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MSSPTIPSRLYSLLFRRTSTFALTIAVGALFFERAFDQGADAIYEHINEGKLWKHIKHKYENKE</t>
+          <t>ATYKVKLITPEGPVEFNCPDDVYILDSAEENGHDLPYSCRAGACSSCAGKITAGNVDQSDNSFLDDDQVAEGFVLTCVAYPKSNVTIETHKEDDLVG</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASYKVKLITPEGAVEFDCPDDVYILDQAEEMGHDLPYSCRAGSCSSCAGKVTAGNVDQSDGNFLDDDQMADGFVLTCVAYPQSDVTIETHKEEELTA</t>
+          <t>EQVLMQYHRVNAIWMHDQSQKICKWS</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RADTQTYQPYNKDWIKEKIYVLLRRQAQQAGK</t>
+          <t>PWPTCATRKSPITRKPLSCWNLFINHQRMCFTIDLE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RYLNNTELHAYVTW</t>
+          <t>GPMPQMLLEFKFIPPGQMICVGGNDYRHSMNMWERVLRNTGC</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -544,7 +544,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MRGSSNKKIDPRIHYLVPKHEVLNIDEAYKILKELGIRPEQLPWIRASDPVARSINAKPGDIIRIIRKSQLYGEVVSYRYVISG</t>
+          <t>RNMTRGYHPHPEDFQLPEAMIFFPQVNDRRKMWKLCLWPTYTWVIEWEQGWDDFVTEDEMCVPRMILEMPQED</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -557,7 +557,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GLMDTVKNAAKNLAGQLLDTIKCKMTGC</t>
+          <t>LVNQLGISKSLANTILGAIAVGNLASWVLALVPGPGWATKAALATAETIVKHEGKAAAIAW</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -570,20 +570,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RYGGSHVRHKRKFQHQFRDVDQLIWPKRKALHYCFYLEIECGTNAQM</t>
+          <t>ENEHCHFMMGNVDLE</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MNIRPLQDRVLVRRAEEEKKSAGGIILTGNAQEKPSQGEVVAVGNGKKLDNGTTLPMDVKVGDKVLFGKYSGSEVKVGDETLLMMREEDIMGIIA</t>
+          <t>CQFHSWTDCGNDQRSMSWWGW</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,11 +596,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INLKAIAALAKKLL</t>
+          <t>DGHPHNGGCPIMCYDHPFECCRVFGSKNGIV</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -609,11 +609,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MNATIFALLLLLNLAMYNAAEQSSETDMDDTLLIPENYRKGCFKEGHSCPKTAPCCRPLVCKGPSPNTKKCTRP</t>
+          <t>RTCENLADKYRGPCFSGCDTHCTTKENAVSGRCRDDFRCWCTKRC</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -622,115 +622,115 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MAIARGDKVRILRPESYWFNEVGTVASVDQSGIKYPVVVRFEKVNYNGFSGSDGGVNTNNFAEAELQVVAAAAKK</t>
+          <t>CANSCSYGPLTWSCDGNTK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MQPRLLLLAAFLALLVLPEATKAEEGSLLDKMQGYVKEATKTAKDALSSVQESQVAQQARDWMTESFSSLKDYWSSFKGKFTDFWESATSPTQSPP</t>
+          <t>MAKKLAITLTRSVIGRPEDQRITVRTLGLRKMHQTVVHNDNPAIRGMINKVAHLVKVKEIEEE</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LVDHNQFWRGIMLQCHINWMWAMINIYCNWELGFCNWIYRCIDGVYGCAQAGDHKTMKTVSV</t>
+          <t>CYFRNCPIG</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LSLKSNERFIYYFREASD</t>
+          <t>FNHVKNRKMNAKQKMMVQWYQLPVNPSQRDILYNVKNYRWRLMTYEPWEKGSTF</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RNIDYWKNTWLYVNFLASVPDSKILLDPGNRH</t>
+          <t>SLFSLIKAGAKFLGKNLLKQGAQYAACKVSKEC</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MTATHIATYYRPWMKYWWNKFAIAHQRHFHCVLAHLMPDHVIEHSWSKTPIRLNYFPAECSNISWAYYSGIHPGDQSLRYMELARFFHKHWR</t>
+          <t>MSKAHPPELKKFMDKKLSLKLNGGRHVQGILRGFDPFMNLVIDECVEMATSGQQNNIGMVVIRGNSIIMLEALERV</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DEHNIVDVSGPECRANWR</t>
+          <t>IFMKKPEVFRDDYYFADHECHMYIEKGKKRWSIHCYALLDFYNTAGDFPYNIKDQFLCKYMQWLSWHDWCHVQAMAS</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GGLKKLGKKLEGVGKRVFKASEKALPVAVGIKALGK</t>
+          <t>VTSYTLNEIVPLKDVVPEWVRIGFSATTGAEFAAHEVLSWSFHSELEETSASKQ</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FASLLGKALKALAKQ</t>
+          <t>MENEHNRCDEITAYRVEPCPWHRVGRCATCVNVTIILG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -739,24 +739,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GWVQYGMQLSDWVIQCKFSCHDICFLLRGHFQRDMWIGSATMIDQMNHSCVQCVWYLGHPVEPDREMLWCIRKMMFTRAYWRGTSAINQFWYG</t>
+          <t>FRGLAKLLKIGLKSFARVLKKVLPKAAKAGKALAKSMADENAIRQQNQ</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CANSCSYGPLTWSCDGNTK</t>
+          <t>HLWMDIND</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -765,11 +765,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HVSHGHWKALVRQPWAWIPICSSWTPNQKGEVMCTFLWRNFRINFKLNIEKCGTPHNTREEGMSWTRTGQAEYEWC</t>
+          <t>KNYGNGVHCTKKGCSVDWGYAWANIANNSVMNGLTGGNAGWHN</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -778,7 +778,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MANIKSAIKRVKTTEKAEARNISQKSAMRTAVKNAKTAVSNNADNKNELVSLAVKLVDKAAQSNLIHSNKADRIKSQLMTANK</t>
+          <t>CYKYAGFIDYFYDELEWPTKGNRESWNSLLRKHVTDHFYKIV</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -791,11 +791,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FLSSIGKILGNLL</t>
+          <t>PLAAAHPDTNGTLPLIQDRHQKFCKTGWEIF</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -804,7 +804,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MGQEQDTPWILSTGHISTQKRQDGQQTPKLEHRNSTRLMGHCQKTMNQVVMPKQIVYWKQWLSLRNPILVFLKTRVLKRWRLFSKHE</t>
+          <t>MAEPGIDKLFGMVDSKYRLTVVVAKRAQQLLRHGFKNTVLEPEERPKMQTLEGLFDDPNAVTWAMKELLTGRLVFGENLVPEDRLQKEMERLYPVEREE</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -817,37 +817,37 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ICSVKNDPVMGIWNTINSWCEDIPLPAQHMSMYSGTYALLVSMLERLCWPMWNMTYVWRCRVVSAAHTSDRSAFR</t>
+          <t>MSAAAQLKSVDYEVFGRVQGVCFRMYTEGEAKKIGVVGWVKNTSKGTVTGQVQGPEEKVNSMKSWLSKVGSPSSRIDRTNFSNEKSISKLEYSNFSIRY</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PLLWKESGFKCQKNTMP</t>
+          <t>NLSIGWGPIPDGIPVGFFQKNRHMPQSTCWFHSDRISYNFIRRKGWWNNMARPTHHDKPHVCFAFFRAVGINSNRSKMTMCPEGANGEEQPPTGLY</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GNRPVYIPPPRPPHPRL</t>
+          <t>QLNFSPNW</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -856,11 +856,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FIGTALGIASAIPAIVKLFK</t>
+          <t>MAEWVEQVNFSNYQCIPGGKHCHVNQEDRDIVTTTGQSTDYLKKCC</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -869,11 +869,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SWASMAKKLKEYMEKLKQRA</t>
+          <t>MSSPTPPGGQRTLQKRKQGSSQKVAASAPKKNTNSNNSILKIYSDEATGLRVDPLVVLFLAVGFIFSVVALHVISKVAGKLF</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
@@ -882,11 +882,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>QNNICKTTSKHFKGLCFADSKCRKVCIQEDKFEDGHCSKLQRKCLCTKNC</t>
+          <t>TYTETFDDCGLFRALLMTPTAPLDACMFMFRVG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -895,59 +895,59 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>AGRGKQGGKVRAKAKTRSSRAGLQFPVGRVHRLLRKGNY</t>
+          <t>STAERLGDLHIFIKWTEVLAWWWRPTYYHGMWQWFWFQEYLVSNAIKHMKFVCYLVTQWMNSKPIMINLTFVFERRMTKYSWVEIQHK</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IFTGMPMI</t>
+          <t>GILDSFKGVAKGVAKDLAGKLLDKLKCKITGC</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LLFEQPGQLPASRYMWVPIGNHNREGDANPPMCFEDTEMF</t>
+          <t>GIFSLVKGAAKLAGKGLAKEGGKFGLELIACKIAKQC</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MKLVLAIVVILMLLSLSTGAEMSDNHASMSANALRDRLLGPKALLCGGTHARCNRDNDCCGSLCCFGTCISAFVPC</t>
+          <t>RWKFFKKIERVGQNVRDGLIKAGPAIQVLGAAKAL</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KSCCPNTTGRNIYNTCRFGGGSREVCARISGCKIISASTCPSDYPK</t>
+          <t>DHYNCVSSGGQCLYSACPIFTKIQGTCYRGKAKCCK</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -960,37 +960,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>VLEFTQFFTEKYFVSMKCTCRYEARMPVFM</t>
+          <t>IQQHNRFLYEANGEWHHCANID</t>
         </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>QGCKGPYTRPILRPYVRPVVSYNACTLSCRGITTTQARSCCTRLGRCCHVAKGYS</t>
+          <t>TKYYGNGVYCNSKKCWVDWGTAQGCIDVVIGQLGGGIPGKGKC</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CRFCCRCCPRMRGCGLCCRF</t>
+          <t>IEVLLGSDDGGLAFVPGNFSVSAGEKITFKNNAGFPHNVVFDEDEIPAGVDASKISMSEEDLLNGPGETYSVTLSEKGTYTFYCAPHQGAGMVGKVTVN</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ILGPVLGLVGNALGGLIKKI</t>
+          <t>QGCKGPYTRPILRPYVRPVVSYNACTLSCRGITTTQARSCCTRLGRCCHVAKGYS</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,7 +1012,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>FLGLIFHGLVHAGKLIHGLIHRNRG</t>
+          <t>GLPVCGETCFGGTCNTPGCSCSSWPICTRN</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1025,11 +1025,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>FALGAVTKRLPSLFCLITRKC</t>
+          <t>MATYKVTLINEAEGLNKTIEVPDDQYILDAAEEAGIDLPYSCRAGACSTCAGKLISGTVDQSDQSFLDDDQIEAGYVLTCVAYPTSDCVIETHKEEELY</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>1</v>
@@ -1038,24 +1038,24 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DHYNCVSSGGQCLYSACPIFTKIQGTCYRGKAKCCK</t>
+          <t>QDDEYDMMKRQIFTEEKFVQLFAWTPQTTPTSNWCEAGEMVKRYWCVERHRWREEPQPKPCMSYADSESETESESFWEASVLTMCGREMILWLPSDLVR</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LLPNLLKSLL</t>
+          <t>GSPMFV</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
         <v>1</v>
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>VPANAVTESDPAAVALKYHRDAASSERVAAARPGLPPEEQHCENCQFMNPDSAAADWKGCQLFPGKLINLSGWCASWTLRAG</t>
+          <t>CKLKEWPAVRTFQWAKVDMHDIYSANQCRISTRLDTRESMWGLWSVEAMYEHYY</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,20 +1077,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VEPPRCCMWCAAYMYQKLNRNSARTEGLIRQAWADCGVRGPMTLFTPSSWLPDVMQASFSSPKWVHE</t>
+          <t>GLFSKFNKKKIKSGLFKIIKTAGKEAGLEALRTGIDVIGCKIKGEC</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>DHYICAKKGGTCNFSPCPLFNRIEGTCYSGKAKCCIR</t>
+          <t>ILGTILGLLKGL</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,7 +1103,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>AAPANAVTADDPTAIALKYNQDATKSERVAAARPGLPPEEQHCANCQFMQANVGEGDWKGCQLFPGKLINVNGWCASWTLKAG</t>
+          <t>QSTGHIKTQWLPQGCCIGQTAWWVMQHNEDNCNWAVTHVRPEMDWRWNSCFKQYYGIKEDKATSRMNFNFWMKK</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1116,7 +1116,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>EQQNMPMNNLWNIARRVALWRPGGYQMMPVFNMIIWVLHFDAYKKQGNPKFNIPLWFKFQHCRAQW</t>
+          <t>FIGINPFWPNMLPACPEWVWHMVGMMPKNACGGQEQLKIEQWHTFQLGDLPEFSAGAKCNVPWTPYNEAFIWPIQCR</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1129,7 +1129,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DCAWRYAALNKVWTDWPADLLIVHHGEDSPFLRITPQCGSSYPQEEGWFMLCMRTADVFYILKSMQPAISHVAGKAETFCSAMPR</t>
+          <t>ASYKVKLITPEGAVEFDCPDDVYILDQAEEMGHDLPYSCRAGSCSSCAGKVTAGNVDQSDGNFLDDDQMADGFVLTCVAYPQSDVTIETHKEEELTA</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1142,7 +1142,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SGFVLKGYTKTSQ</t>
+          <t>FLSSIGKILGNLL</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1155,11 +1155,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>GFGALFKFLAKKVAKTVAKQAAKQGAKYVVNKQME</t>
+          <t>MHWWQDISGNQMGTKLGTNAGDMEQNPW</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
@@ -1168,33 +1168,33 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NGVYCNKQKCWVDWSRARSEIIDRGVKAYVNGFTKVLGGIGGR</t>
+          <t>FNLSCRKRWWDRWSCVNADECNEQ</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RLGNFFRKAKKKIGRGLKKIGQKIKDFLGNLVPRTES</t>
+          <t>AFKVKLLTPDGPKEFECPDDVYILDQAEELGIELPYSCRAGSCSSCAGKLVEGDLDQSDQSFLDDEQIEEGWVLTCAAYPRSDVVIETHKEEELTG</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LCDFIPEPDFRVRQGVHNAMQAQWQLLNEDQLMMKWFGQEQQMDEQKHNCNCFMET</t>
+          <t>TKRCYKCNKKPHYWYTKGYICVHEHRFPFWPRWYCHTIFETSCHGFAYADTKCALNHQFKW</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,24 +1207,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MSHKQIYYSDKYDDEEFEYRHVMLPKDIAKLVPKTHLMSESEWRNLGVQQSQGWVHYMIHEPEPHILLFRRPLPKKPKK</t>
+          <t>DSHAKRHHGYKRKFHEKHHSHRGYRSNYLYDN</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RNCESLSHRFKGPCTRDSN</t>
+          <t>GIEATRGHHQCWKARDRKVDQNDCSGRQAMGETFWPTVMYLHSGKSPREEQN</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -1233,37 +1233,37 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>WLCGWLCLWQAEYMFLTINGDAGYQADHAFYRQFCEKKPYVFVTYYYWSVRTVLQHYIMLQFIWDLNQTWEQWVHNLCQT</t>
+          <t>GWLKKIGKKIERVGQHTRDATIQTIAVAQQAANVAATAR</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KSCCPNTTGRNIYNTCRLGGGSRERCASLSGCKIISASTCPSDYPK</t>
+          <t>DCAWRYAALNKVWTDWPADLLIVHHGEDSPFLRITPQCGSSYPQEEGWFMLCMRTADVFYILKSMQPAISHVAGKAETFCSAMPR</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TCSYTMEA</t>
+          <t>LPWKDGFPTPCLYRMIHAMPMHMWYWPLYVLTFDIMIFSNWNLGGHLLFWATQV</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -1272,7 +1272,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SWFSRTVHNVGNAVRKGIHAGQGVCSGLGL</t>
+          <t>RECKTESNTFPGICITKPPCRKACISEKFTDGHCSKILRRCLCTKPC</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1285,7 +1285,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VGECVRGRCPSGMCCSQFGYCGKGPKYCG</t>
+          <t>GIFGKILGVGKKTLCELSGMC</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -1298,98 +1298,98 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>GILDTIKNAAKTVAVGLLEKIKCKMTGC</t>
+          <t>DARVGEICRNTFSYTITIVDARDVSYKNTPPRARYQEQLPSFMHYHECIMRDNDVNMVGACPIISFYRWFPGIMRMH</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MATQTVEDSSRSGPRSTTVGKLLKPLNSEYGKVAPGWGTTPLMGVAMALFAVFLSIILEIYNSSVLLDGISVN</t>
+          <t>QFYPCTAHGVVCELRQDRRIHWI</t>
         </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>QTQDP</t>
+          <t>CLAHFMPLGIKM</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MENEHNRCDEITAYRVEPCPWHRVGRCATCVNVTIILG</t>
+          <t>GWLRKIGKKIERVGQHTRDATIQVLGIAQQAANVAATAR</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GLRSKIWLWVLLMIWQESNKFKKM</t>
+          <t>IFNSIYHRKCVVKNRCETVSGHKTCKDLTCCRAVIFRHERPEVCRPST</t>
         </is>
       </c>
       <c r="B71" t="n">
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GFGCNGPWDEDDMQCHNHCKSIKGYKGGYCAKGGFVCKCY</t>
+          <t>MIRFILFISCFFLIGMVIECKDGYLMEPNGCKRGCLTRPARYCPNECSRLKGKDGYCYLWLACYCYNMPESAPVWERATNRCGKGK</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RTQACFWGLQAPLDSKHENSYFIQRKEISQWASCSLWECVAL</t>
+          <t>QTQDP</t>
         </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MSSVVKKPLGGNTDTGDHHNQKTEWPELVGKSVEEAKKVILQDKSEAQIVVLPVGTIVTMEYRIDRVRLFVDSLDKIAQVPRVG</t>
+          <t>FPRPLYEERWRLTFLMQTVDGSMTYSPIGRDDYYGGMPCHPAVQKGSRCNQQYHSFANGDDPLY</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,7 +1402,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>QQRQQPNWLKNCFACLA</t>
+          <t>LLFEQPGQLPASRYMWVPIGNHNREGDANPPMCFEDTEMF</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1415,20 +1415,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MATYKVTLINEAEGLNKTIEVPDDQYILDAAEEAGIDLPYSCRAGACSTCAGKLISGTVDQSDQSFLDDDQIEAGYVLTCVAYPTSDCVIETHKEEELY</t>
+          <t>RLGNFFRKAKKKIGRGLKKIGQKIKDFLGNLVPRTES</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EAQYCNIACDSIICDTEIYNDDISVTIRSEWLARS</t>
+          <t>MAHKKAGGSTRNGRDSESKRLGVKLFGGQAVKAGNILVRQRGTKFHAGYGVGLGKDHTLFAKVDGVVKFETKGAFGRKYVSIVAA</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1441,20 +1441,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>LKWRGPREQLNVTKQHNDIFCPSWNSHISMSFHGIVHNMHRPSNDYYCLVGVMRRKSHDTHTNRCNVRFHRASGCFWKNW</t>
+          <t>WKSESVCTPGCVTGLLQTCFLQTITCNCKISK</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GIFPKIIGKGIVNGIKSLAKGVGMKVFKAGLNNIGNTGCNNRDEC</t>
+          <t>ILGPVLGLVGNALGGLIKKI</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1467,50 +1467,50 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FNLSCRKRWWDRWSCVNADECNEQ</t>
+          <t>ICSVKNDPVMGIWNTINSWCEDIPLPAQHMSMYSGTYALLVSMLERLCWPMWNMTYVWRCRVVSAAHTSDRSAFR</t>
         </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FLPPSPWKETFRTS</t>
+          <t>MKILLAIALMLSTVMWVSTQQPQEVHTYCGRHLARTMADLCWEEGVDKRSDAQFASYGSAWLMPYSAGRGIVDECCLRPCSVDVLLSYC</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AMYNFDVGLTMSSEQWCQMARQWCQCTPQA</t>
+          <t>RYHMQCGYRGTFCTPGKCPYGNAYLGLCRPKYSCCRWL</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>QFYPCTAHGVVCELRQDRRIHWI</t>
+          <t>GLLDFVTGVGKDIFAQLIKQI</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="n">
         <v>1</v>
@@ -1519,11 +1519,11 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MFTVFLLVVLATTVVSFTSDRASDGRKDAASGLIALTMKGCCSYPPCFATNPDCGRRR</t>
+          <t>TCVGGTCNTPGCSCSWPVCTRNGLPICGE</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
         <v>1</v>
@@ -1532,7 +1532,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MKKTLLIAASLSFFSASALATPDCVTGKVEYTKYNDDDTFTVKVGDKELFTNRWNLQSLLLSAQITGMTVTIKTNACHNGGGFSEVIFR</t>
+          <t>VIAYTGWTGTRKHGKRPVEMWVMCVWQHDILVYKSFGCDNWQLRQRLLHNNPWVKFVTLVTHTMRQ</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1545,20 +1545,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GLDSATSYMLHWFIPSLTYIDF</t>
+          <t>IDWLKLGKMVMDVL</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>RTCENLADKYRGPCFSGCDTHCTTKENAVSGRCRDDFRCWCTKRC</t>
+          <t>NGVYCNKQKCWVDWSRARSEIIDRGVKAYVNGFTKVLGGIGGR</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1571,20 +1571,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LSWKICDKVCRVCRCFMDYAWWGHFHEECEGDHQLRLKEARCHEFNVFFDWPEFVRIIGCAGHYGSLRTRTAPLDWQSGWPHAFFWPCQDSFKYP</t>
+          <t>MEKREFNIIAETGIHARPATLLVQAASKFNSDINLEYKGKSVNLKSIMGVMSLGVGQGADVTISAEGADEADAIAAITDTMKKEGLAE</t>
         </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TYTETFDDCGLFRALLMTPTAPLDACMFMFRVG</t>
+          <t>MAIARGDKVRILRPESYWFNEVGTVASVDQSGIKYPVVVRFEKVNYNGFSGSDGGVNTNNFAEAELQVVAAAAKK</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1597,7 +1597,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FLIGMTHGLICLISRKC</t>
+          <t>QRPYTQPLIYYPPPPTPPRIYRA</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SGRVCGWSQKGGPVFWASQKNMYSISFISQWKHYLCGANCPVFG</t>
+          <t>CYTPIQHVEKARCACHFRTIQCCISTCQKYNPIETVYLIDLPMQVPGQKIHEYHHWDCQQWKEWCTCTLS</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,7 +1623,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GTLPCESCVWIPCISSVVGCSCKSKVCYKN</t>
+          <t>QGVRNFVTCRINRGFCVPIRCPGHRRQIGTCLAPQIKCCR</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -1636,7 +1636,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HRVTRHINRGPPWYNGWTAAHYRRVCTMVCTSTQHQAAELKTFVYGRCHVPDYYNSYTILQND</t>
+          <t>HVSHGHWKALVRQPWAWIPICSSWTPNQKGEVMCTFLWRNFRINFKLNIEKCGTPHNTREEGMSWTRTGQAEYEWC</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,20 +1649,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MAKKLAITLTRSVIGRPEDQRITVRTLGLRKMHQTVVHNDNPAIRGMINKVAHLVKVKEIEEE</t>
+          <t>GLFSVVTGVLKAVGKNVAKNVGGSLLEQLKCKISGGC</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ADLANGAKVFSGNCAACHMGGGNVVMANKTLKKEALEQFGMYSEDAIIYQVQHGKNAMPAFAGRLTDEQIQDVAAYVLDQAAKGWAG</t>
+          <t>DTMKFIWKMQTMAVIWAYGRQTYRPEPQPPPSKLIYIVMHEGKSHL</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DRTNTENMVRFRGKMSNMDTFMGRIHKSMNVNVLYRLD</t>
+          <t>CHWVYNCLYINKCASHYLSMDHVLASGWLRVPIMDIKPVDESVMHFA</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GSQLVYREWVGHSNVIKP</t>
+          <t>FIGLLISAGKAIHDLIRRRH</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,11 +1701,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FLPVIAGLLSKLF</t>
+          <t>RYLNNTELHAYVTW</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
         <v>1</v>
@@ -1714,7 +1714,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IEVLLGGDDGSLAFIPNDFSVAAGEKIVFKNNAGFPHNVVFDEDEIPSGVDAGKISMNEEDLLNAPGEVYKVNLTEKGSYSFYCSPHQGAGMVGKVTVN</t>
+          <t>FNFRMYFADEEEMLPAVFIDCWQFEAIKAYTVIQFNFYQPQTELPKSLNDVKVHKVFIIAVAKRNGCICNQEIDRTKAMTCALHSLISV</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1727,24 +1727,24 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MAAEDTPQDIADRERIFKRFDTNGDGKISSSELGDALKTLGSVTPDEVRRMMAEIDTDGDGFISFDEFTDFARANRGLVKDVSKIF</t>
+          <t>FLPVIAGVAAKFLPKIFCAITKKC</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>QGPPISIDLSLELLRKMIEIEKQEKEKQQAANNRLLLDTI</t>
+          <t>LAGYTGIASGTAKKVVDAIDKGAAAFVIISIISTVISAGALGAVSASADFIILTVKNYISRNLKAQAVIW</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C101" t="n">
         <v>1</v>
@@ -1753,33 +1753,33 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>LAGYTGIASGTAKKVVDAIDKGAAAFVIISIISTVISAGALGAVSASADFIILTVKNYISRNLKAQAVIW</t>
+          <t>GNRPVYIPPPRPPHPRL</t>
         </is>
       </c>
       <c r="B102" t="n">
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IFMKKPEVFRDDYYFADHECHMYIEKGKKRWSIHCYALLDFYNTAGDFPYNIKDQFLCKYMQWLSWHDWCHVQAMAS</t>
+          <t>GIMSIVKDVAKNAAKEAAKGALSTLSCKLAKTC</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>FLGVVFKLASKVFPAVFGKV</t>
+          <t>KKLLKWLKKLL</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1792,46 +1792,46 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MAANATTNPSQLLPLELVDKCIGSRIHIVMKSDKEIVGTLLGFDDFVNMVLEDVTEFEITPEGRRITKLDQILLNGNNITMLVPGGEGPEV</t>
+          <t>VGECVRGRCPSGMCCSQFGYCGKGPKYCG</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SLFSLIKAGAKFLGKNLLKQGAQYAACKVSKEC</t>
+          <t>VKYVTETQHFNMWIAPWMAPRQTWWTFGFIGMRVSVMWTAYVPQWDPWPYADTLLCPN</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CQFHSWTDCGNDQRSMSWWGW</t>
+          <t>GLLGPLLKIAAKVGSNLL</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>QSTGHIKTQWLPQGCCIGQTAWWVMQHNEDNCNWAVTHVRPEMDWRWNSCFKQYYGIKEDKATSRMNFNFWMKK</t>
+          <t>NKYDNKCGSCTVHDNNAYHQFFPNYVWPKK</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,20 +1844,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>GLLGVLGSVAKHVLPHVVPVIAEHL</t>
+          <t>HYWGGLKSARLQQLCNNMFCNGSEPCVWKIGVGHFAEFERHQNKVDMGIMIYFYNYVC</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>RYHMQCGYRGTFCTPGKCPYGNAYLGLCRPKYSCCRWL</t>
+          <t>FIGTALGIASAIPAIVKLFK</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GLLSGILGAGKHIICGLSGLC</t>
+          <t>GICACRRRFCPNSERFSGYCRVNGARYVRCCSRR</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,7 +1883,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NILNTIINLAKKIL</t>
+          <t>KGGSGVIHTISHEVIYNSWNFVFTCCS</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1896,7 +1896,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MEKREFNIIAETGIHARPATLLVQAASKFNSDINLEYKGKSVNLKSIMGVMSLGVGQGADVTISAEGADEADAIAAITDTMKKEGLAE</t>
+          <t>EHYCKRQYIGQKWIVSFQKPSWFYM</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,46 +1909,46 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EGGGPQWAVGHFM</t>
+          <t>ETEQGVANIRDISDRVSNVAEMQRQIYRQELLKQKYGISKMEIHPISKDEKDGYYNVHIVWYAFCSPMMGVDYWADWFQEMPRKRFHPETR</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GTVSCQKHQDSHKDVAGPATMERLCRAIGIQNWFLFIMRHDKHWLNSPHYDVHRWHHHLVPEHIHQEYHGELESHLLFQL</t>
+          <t>FLPIIAGAAAKVVQKIFCAISKKC</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IEVLLGSDDGGLAFVPGNFSVSAGEKITFKNNAGFPHNVVFDEDEIPAGVDASKISMSEEDLLNGPGETYSVTLSEKGTYTFYCAPHQGAGMVGKVTVN</t>
+          <t>LLPNLLKSLL</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MSTSVKHREFVGEPMGDKEVTCIAGIGPTYGTKLTDAGFDKAYVLFGQYLLLKKDEDLFIEWLKETAGVTANHAKTAFNCLNEWADQFM</t>
+          <t>EAWRSYWHRLMVKAEIYTKYC</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -1961,7 +1961,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TGCMQ</t>
+          <t>RTQACFWGLQAPLDSKHENSYFIQRKEISQWASCSLWECVAL</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -1974,7 +1974,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GILDTLKNLAKTAGKGALQGLVKMASCKLSGQC</t>
+          <t>RKSKEKIGKEFKRIVQRIKDFLRNLVPRTES</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,37 +1987,37 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MTDDKAGPSGLSLKEAEEIHSYLIDGTRVFGAMALVAHILSAIATPWLG</t>
+          <t>GLLSKVLGVGKKVLCGVSGLC</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DSHAKRHHGYKRKFHEKHHSHRGYRSNYLYDN</t>
+          <t>SWASMAKKLKEYMEKLKQRA</t>
         </is>
       </c>
       <c r="B121" t="n">
         <v>1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>YSSGYTRPLPKPSRPIFIRPIGCDVCYGIPSSTARLCCFRYGDCCHR</t>
+          <t>CWLERPTFNNSRRNKTFLVIIIKC</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
         <v>1</v>
@@ -2026,33 +2026,33 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GIFSNMYARTPAGYFRGPAGYAAN</t>
+          <t>MVDMKASMFLTFAGLVLLFVVCYASESEEKEFPKEMLSSIFAVDNDFKQEERDCAGYMRECKEKLCCSGYVCSSRWKWCVLPAPWRR</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FYWWYYVQEQDTPDNWMKHRKCNDT</t>
+          <t>MFTVFLLVVLATTVVSFTSDRASDGRKDAASGLIALTMKGCCSYPPCFATNPDCGRRR</t>
         </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>TKYYGNGVYCNSKKCWVDWGTAQGCIDVVIGQLGGGIPGKGKC</t>
+          <t>NILNTIINLAKKIL</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ENLLYTNKKCTWNQFSFGRVSWFCSKMYDGCRHWMEILWQEVPYSCSISKNIESHQWTDMVVEWGVWHPKEIANACWFVDGYCQHFCLVHKCSDSPLI</t>
+          <t>CWQDDYPDQHDDSEQQFIGMEWIHQDMLLLYCHPVCNVRTITDVNKDMFGTKGDVQCPGCAMYIYRMMDYWEWSTGQKVNGKDRLVNHRLAQARYCFYW</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,50 +2078,50 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RDSCLMVRRTQMCVYLERCRHAPYNSTIHMWTGNHCLYHADYEHDFTVDF</t>
+          <t>FILPLIASFLSKFL</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FNFRMYFADEEEMLPAVFIDCWQFEAIKAYTVIQFNFYQPQTELPKSLNDVKVHKVFIIAVAKRNGCICNQEIDRTKAMTCALHSLISV</t>
+          <t>SALVGCWTKSYPPNPCFGRG</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>DTMKFIWKMQTMAVIWAYGRQTYRPEPQPPPSKLIYIVMHEGKSHL</t>
+          <t>GFSSIFRGVAKFASKGLGKDLARLGVNLVACKISKQC</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>RECKTESNTFPGICITKPPCRKACISEKFTDGHCSKILRRCLCTKPC</t>
+          <t>ADAAAGGKVFNANCAACHASGGGQINGAKTLKKNALTANGKDTVEAIVAQVTNGKGAMPAFKGRLSDDQIQSVALYVLDKAEKGW</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C130" t="n">
         <v>1</v>
@@ -2130,33 +2130,33 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CGFRFCTITAHQHLVVYIIDVMNTIFLNGGIFVSIAKHRDHAHFPSEL</t>
+          <t>VFHLLGKIIHHVGNFVYGFSHVF</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NITVVMQESGFRNIA</t>
+          <t>WIGEFRVKIHTSWQAHTHFNRVTVKPEKWAGDCINFKFVPMSAPKAK</t>
         </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MQLTMREQEKMMISLAAMIAQRRKDKGIKLNHPEAVALITDYVLEGAREGKTVAQLMDEARNLLTREDVMEGIAEMIPMIQVEATFTDSTKLVTVHDPIQ</t>
+          <t>GMGPPMKQINEPDHIWLLNTCPVHQNTHWMKVLFYITQNESVCVECHYSNPSWRIMVTPDYWCPCFFDSVKGYLPSIWGGNVNFTL</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -2169,20 +2169,20 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>MIRFILFISCFFLIGMVIECKDGYLMEPNGCKRGCLTRPARYCPNECSRLKGKDGYCYLWLACYCYNMPESAPVWERATNRCGKGK</t>
+          <t>IFNFEQYPHTQPAKFIADQ</t>
         </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>VTSYTLNEIVPLKDVVPEWVRIGFSATTGAEFAAHEVLSWSFHSELEETSASKQ</t>
+          <t>VYVYPLIFNRKQLEHKWDNAMTKGTIKPLAAWWMIQCTKLLNLKGHLHMLDKADDVQASYATELWVVTIEITNKCCATQEEVKPGWHILPFSVHDRFAID</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,20 +2195,20 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>FLPIIAGAAAKVVEKIFCAISKKC</t>
+          <t>HNDHPIYPPDWVQETNENDPLPNQEIGRMWVCTDAAERVAHKQHDALITGGWIWFTQDLYREAIPQMRTHCSMIETHF</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GDVAAGASVFSANCAACHMGGRNVIVANKTLSKSDLAKYLKGFDDDAVAAVAYQVTNGKNAMPGFNGRLSPKQIEDVAAYVVDQAEKGW</t>
+          <t>PPCKKETSASCSRNDWTVGLMRWLCTDIVSNNSDAESECRKVYWWMRCWDKSTNHPM</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,89 +2221,89 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RNMTRGYHPHPEDFQLPEAMIFFPQVNDRRKMWKLCLWPTYTWVIEWEQGWDDFVTEDEMCVPRMILEMPQED</t>
+          <t>GGLKKLGKKLEGVGKRVFKASEKALPVAVGIKALGK</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>GSPMFV</t>
+          <t>YSSGYTRPLPKPSRPIFIRPIGCDVCYGIPSSTARLCCFRYGDCCHR</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MYGHSTMFRCSLPDCFSKSSHSYCVNTYQEVCTMHGHIHSLPSVYDRLPVCAHKPHFSVHVQPFS</t>
+          <t>MNIRPLQDRVLVRRAEEEKKSAGGIILTGNAQEKPSQGEVVAVGNGKKLDNGTTLPMDVKVGDKVLFGKYSGSEVKVGDETLLMMREEDIMGIIA</t>
         </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>QGVRNHVTCRIYGGFCVPIRCPGRTRQIGTCFGRPVKCCRRW</t>
+          <t>FEPTTNEYGGHWARLFQKADLVARRSQWNRLHTYSFWGDPEWWEEECRQ</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>YWAGSLYRKHCAHICQWDRNCHTMSMIN</t>
+          <t>CRFCCRCCPRMRGCGLCCRF</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MSSPTPPGGQRTLQKRKQGSSQKVAASAPKKNTNSNNSILKIYSDEATGLRVDPLVVLFLAVGFIFSVVALHVISKVAGKLF</t>
+          <t>AGRGKQGGKVRAKAKTRSSRAGLQFPVGRVHRLLRKGNY</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>QGVRNFVTCRINRGFCVPIRCPGHRRQIGTCLAPQIKCCR</t>
+          <t>MPITKEEKQKVIQEFARFPGDTGSTEVQVALLTLRINRLSEHLKVHKKDHHSHRGLLMMVGQRRRLLRYLQREDPERYRALIEKLGIRG</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C144" t="n">
         <v>1</v>
@@ -2312,124 +2312,124 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GIGASILSAGKSALKGFAKGLAEHFAN</t>
+          <t>RMRAYCSHGHIRSRLRAGGWEPIAFTPPLIFKTKNVVWDWG</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DTISYEHVQLYGGNVMKWTGAMCYNAWFIPESYYPTGYTGH</t>
+          <t>GIFPKIIGKGIVNGIKSLAKGVGMKVFKAGLNNIGNTGCNNRDEC</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CNKCKVGTCTVDQSCQLMSSDYGKNMAKTYMSMFYDMDDHKNQPPEVHAPWQWMDTEAH</t>
+          <t>DHYICAKKGGTCNFSPCPLFNRIEGTCYSGKAKCCIR</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>YYPFPHKCHKFARMSELPPCWTDLMSEQWQDWVTQHCYCLHGCYCNEKMHMQQTNKRHCLLHAVHLVHQWFKGNQSAHPAFYDLSPPRFGHRLFDSQ</t>
+          <t>GSQLVYREWVGHSNVIKP</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MASVNIKPLEDKILVQANEAETTTASGLVIPDTAKEKPQEGTVVAVGPGRWDEDGEKRIPLDVAEGDTVIYSKYGGTEIKYNGEEYLILSARDVLAVVSK</t>
+          <t>RCQQETLAQYMTTDWSPLRATFHDK</t>
         </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MVSQLFEEKAKAVNELPTKPSTDELLELYGLYKQATVGDNDKEKPGIFNMKDRYKWEAWEDLKGKSQEDAEKEYIAYVDNLIAKYSS</t>
+          <t>FALGAVTKRLPSLFCLITRKC</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>QVNFSPNW</t>
+          <t>QFRYSFLMWWQWSCLRTMGENNWTILHYKTQMKQLL</t>
         </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MEARDILKRPVITEKSSEAMAEDKYTFDVDTRVNKTQVKMAVEEIFNVKVASVNIMNYKPKKKRMGRYQGYTNKRRKAIVTLKEGSIDLFN</t>
+          <t>RPRCWIKIKFRCKSLKF</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HSIQMAPMDTPGTHMADDTLRWGRVESVFMSYGCKVANIYSPTKNHNYHNLRILKHAGYDVVCHQDWYDQDRVCSPWRFHHTMQDRQA</t>
+          <t>GIKDWIKGAAKKLIKTVASNIANQ</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>VGKTWIKVIRGIGKSKIKWQ</t>
+          <t>GLFLDTLKGLAGKLLQGLKCIKAGCKP</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -2442,46 +2442,46 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LWNYNLRLLAYENCTKLGMAGQTQHYNLHLLFNPEIATPVAFLHCDTTVTEVCGYYIRFGTQSKAASIECYNDMPCCRDTAA</t>
+          <t>YPSMSCIWHSVPQCSKEGRRAERFGYMSCRWCHVMTLT</t>
         </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PPCKKETSASCSRNDWTVGLMRWLCTDIVSNNSDAESECRKVYWWMRCWDKSTNHPM</t>
+          <t>GLLGVLGSVAKHVLPHVVPVIAEHL</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FILPLIASFLSKFL</t>
+          <t>AAPANAVTADDPTAIALKYNQDATKSERVAAARPGLPPEEQHCANCQFMQANVGEGDWKGCQLFPGKLINVNGWCASWTLKAG</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GFSSIFRGVAKFASKGLGKDLARLGVNLVACKISKQC</t>
+          <t>EGGGPQWAVGHFM</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,33 +2494,33 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>MYRWCMSRTNIDIDDELAAEVMRRFGLTTKRAAVDLALRRLVGSPLSREFLLGLEGVGWEGDLDDLRSDRPD</t>
+          <t>GLLDTIKNMALNAAKSAGVSVLNTLSCKLSKTC</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MAIERGAKVRILRKESYWYREVGTVASVDKSEKTIYPVTVRFEKVNYSGINTNNFGVSELEEVEA</t>
+          <t>AYPGNGVHCGKYSCTVDKQTAIGNIGNNAA</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EAWRSYWHRLMVKAEIYTKYC</t>
+          <t>LCDFIPEPDFRVRQGVHNAMQAQWQLLNEDQLMMKWFGQEQQMDEQKHNCNCFMET</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -2533,46 +2533,46 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>TQHPCQPCEDAVLWVDRDRKIVNREACDPHDLDIKTSTLEAGIESEMQAFFCGWFMMMPPRYPSMRIDHSWNVKYMTSCKRKGR</t>
+          <t>RRWCFRVCYRGFCYRKCR</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>LAWHKMVQFTGIWINPSRCGNQSPGFQR</t>
+          <t>TNYIRPIGCWSQAYWFSYMRWTETARSEDPWVPQSIRHTDPPEVWYWPACQMEPIDVKMLYPYTIDNYWIQQFQVGVTVAMDAFGVTQQMIHNMRVDRHA</t>
         </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MKLLLLLIVSASMLIESLVNADGYIKRRDGCKVACLVGNEGCDKECKAYGGSYGYCWTWGLACWCEGLPDDKTWKSETNTCGGKK</t>
+          <t>FLPVIAGLLSKLF</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>IDWKKLLDAAKQIL</t>
+          <t>KYYGNGVHCTKSGCSVNWGEAASAGIHRLANGGNGFW</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -2585,33 +2585,33 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MSAAAQLKSVDYEVFGRVQGVCFRMYTEGEAKKIGVVGWVKNTSKGTVTGQVQGPEEKVNSMKSWLSKVGSPSSRIDRTNFSNEKSISKLEYSNFSIRY</t>
+          <t>GFKGAFKNVMFGIAKSAGKSALNALACKIDKSC</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CYINNCPLG</t>
+          <t>VEPPRCCMWCAAYMYQKLNRNSARTEGLIRQAWADCGVRGPMTLFTPSSWLPDVMQASFSSPKWVHE</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CKLKEWPAVRTFQWAKVDMHDIYSANQCRISTRLDTRESMWGLWSVEAMYEHYY</t>
+          <t>MASVNIKPLEDKILVQANEAETTTASGLVIPDTAKEKPQEGTVVAVGPGRWDEDGEKRIPLDVAEGDTVIYSKYGGTEIKYNGEEYLILSARDVLAVVSK</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -2624,7 +2624,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>HNDHPIYPPDWVQETNENDPLPNQEIGRMWVCTDAAERVAHKQHDALITGGWIWFTQDLYREAIPQMRTHCSMIETHF</t>
+          <t>SGRVCGWSQKGGPVFWASQKNMYSISFISQWKHYLCGANCPVFG</t>
         </is>
       </c>
       <c r="B169" t="n">
@@ -2637,11 +2637,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>KYYGNGVSCNKNGCTVDWSKAIGIIGNNAAANLTTGGAAGWNKG</t>
+          <t>DTISYEHVQLYGGNVMKWTGAMCYNAWFIPESYYPTGYTGH</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
@@ -2650,7 +2650,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GIMSIVKDVAKNAAKEAAKGALSTLSCKLAKTC</t>
+          <t>FLIGMTHGLICLISRKC</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -2663,20 +2663,20 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GIHDILKYGKPS</t>
+          <t>CGFRFCTITAHQHLVVYIIDVMNTIFLNGGIFVSIAKHRDHAHFPSEL</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>WLNALLHHGLNCAKGVLA</t>
+          <t>GLLDTFKNLALNAAKSAGVSVLNSLSCKLSKTC</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,63 +2689,63 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FLPVIAGVAAKFLPKIFCAITKKC</t>
+          <t>LVDHNQFWRGIMLQCHINWMWAMINIYCNWELGFCNWIYRCIDGVYGCAQAGDHKTMKTVSV</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CYTPIQHVEKARCACHFRTIQCCISTCQKYNPIETVYLIDLPMQVPGQKIHEYHHWDCQQWKEWCTCTLS</t>
+          <t>MATQTVEDSSRSGPRSTTVGKLLKPLNSEYGKVAPGWGTTPLMGVAMALFAVFLSIILEIYNSSVLLDGISVN</t>
         </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>MELTPREKDKLLLFTAGLVAERRLAKGLKLNYPEAVALISCAIMEGAREGKTVAQLMSEGRTVLTAEQVMEGVPEMIKDVQVECTFPDGTKLVSIHSPIV</t>
+          <t>TGCMQ</t>
         </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>IQQHNRFLYEANGEWHHCANID</t>
+          <t>FLPPSPWKETFRTS</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>LLSLALAALPKLFCLIFKKC</t>
+          <t>LHTQIECSFI</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2754,33 +2754,33 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MAAETLTELEAAIETVVSTFFTFAGREGRKGSLNINEFKELATQQLPHLLKDVGSLDEKMKTLDVNQDSELRFSEYWRLIGELAKEVRKEKALGIRKK</t>
+          <t>ECTLH</t>
         </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>QLNFSPNW</t>
+          <t>MEQEQDTPWTQSTEHINIQKKGGGQQTQRPEHPNSTLLMDHYLKITSRAGMHKQIVYWKQWLSLKNPTQDSLKTRVLKRWKLSSKREWIS</t>
         </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MVNMKASMFLTFAGLVLLFVVCYASESEEKEFPKEMLSSIFAVGNDFKQEERDCAGYMRECKEKLCCSGYVCSSRWKWCVLPAPWRR</t>
+          <t>WLCGWLCLWQAEYMFLTINGDAGYQADHAFYRQFCEKKPYVFVTYYYWSVRTVLQHYIMLQFIWDLNQTWEQWVHNLCQT</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,24 +2793,24 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>FLPLLLAGLPLKLCFLFKKC</t>
+          <t>NWPHPFFHDFFYTARDLNPWPM</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>HWPKEGSFE</t>
+          <t>GILDTLKNLAKTAGKGALQGLVKMASCKLSGQC</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
@@ -2819,7 +2819,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SIVPIRCRSNRDCRRFCGFRGGRCTYARQCLCGY</t>
+          <t>NPVSCVRNKGICVPIRCPGSMKQIGTCVGRAVKCCRKK</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,37 +2832,37 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>LPWKDGFPTPCLYRMIHAMPMHMWYWPLYVLTFDIMIFSNWNLGGHLLFWATQV</t>
+          <t>ETYSVTLVNEEKNINAVIKCPDDQFILDAAEEQGIELPYSCRAGACSTCAGKVLSGTIDQSEQSFLDDDQMGAGFLLTCVAYPTSDCKVQTHAEDDLY</t>
         </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GILGNIVGMGKKVVCGLSGLC</t>
+          <t>MSHKQIYYSDKYDDEEFEYRHVMLPKDIAKLVPKTHLMSESEWRNLGVQQSQGWVHYMIHEPEPHILLFRRPLPKKPKK</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>RPRCWIKIKFRCKSLKF</t>
+          <t>MKTLLLTLVVMTIVCLDLGYTLICFISSHDSVTCAPGENVCFLKSWCDAWCGSRGKKLSFGCAATCPKVNPGIDIECCSTDNCNPHPKLRP</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C187" t="n">
         <v>1</v>
@@ -2871,59 +2871,59 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ECTLH</t>
+          <t>MAAEDTPQDIADRERIFKRFDTNGDGKISSSELGDALKTLGSVTPDEVRRMMAEIDTDGDGFISFDEFTDFARANRGLVKDVSKIF</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CWQDDYPDQHDDSEQQFIGMEWIHQDMLLLYCHPVCNVRTITDVNKDMFGTKGDVQCPGCAMYIYRMMDYWEWSTGQKVNGKDRLVNHRLAQARYCFYW</t>
+          <t>HSSGYTRPLRKPSRPIFIRPIGCDVCYGIPSSTARLCCFRYGDCCHL</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GMGPPMKQINEPDHIWLLNTCPVHQNTHWMKVLFYITQNESVCVECHYSNPSWRIMVTPDYWCPCFFDSVKGYLPSIWGGNVNFTL</t>
+          <t>DAEFRHDSGYEVHHQKLVFFAEDVGSNKGAIIGLMVGGVV</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GLVSSIGRALGGLLADVVKSKGQPA</t>
+          <t>MATFKVTLINEAEGTKHEIEVPDDEYILDAAEEQGYDLPFSCRAGACSTCAGKLVSGTVDQSDQSFLDDDQIEAGYVLTCVAYPTSDVVIQTHKEEDLY</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MGSELETAMETLINVFHAHSGKEGDKYKLSKKELKDLLQTELSSFLDVQKDADAVDKIMKELDENGDGEVDFQEFVVLVAALTVACNNFFWENS</t>
+          <t>LWNYNLRLLAYENCTKLGMAGQTQHYNLHLLFNPEIATPVAFLHCDTTVTEVCGYYIRFGTQSKAASIECYNDMPCCRDTAA</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -2936,11 +2936,11 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>YVSCLFRGARCRVYSGRSCCFGYYCRRDFPGSIFGTCSRRNF</t>
+          <t>QVNFSPNW</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C193" t="n">
         <v>1</v>
@@ -2949,20 +2949,20 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>TNYIRPIGCWSQAYWFSYMRWTETARSEDPWVPQSIRHTDPPEVWYWPACQMEPIDVKMLYPYTIDNYWIQQFQVGVTVAMDAFGVTQQMIHNMRVDRHA</t>
+          <t>HWPKEGSFE</t>
         </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>VYVYPLIFNRKQLEHKWDNAMTKGTIKPLAAWWMIQCTKLLNLKGHLHMLDKADDVQASYATELWVVTIEITNKCCATQEEVKPGWHILPFSVHDRFAID</t>
+          <t>YYPFPHKCHKFARMSELPPCWTDLMSEQWQDWVTQHCYCLHGCYCNEKMHMQQTNKRHCLLHAVHLVHQWFKGNQSAHPAFYDLSPPRFGHRLFDSQ</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,7 +2975,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FRGLAKLLKIGLKSFARVLKKVLPKAAKAGKALAKSMADENAIRQQNQ</t>
+          <t>GLWETIKNFGKKFTLNILHKLKCKIGGGC</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -2988,11 +2988,11 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>GLISGILGVGKMLVCGLSGLC</t>
+          <t>MYRWCMSRTNIDIDDELAAEVMRRFGLTTKRAAVDLALRRLVGSPLSREFLLGLEGVGWEGDLDDLRSDRPD</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C197" t="n">
         <v>1</v>
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>EQQHGISQPFLSKKYPPKDMKPRCKLSQSNYYHSEKDGAWPHRMTMPDHMWMKPKIYNPVEWTRMGDYSPYKRGTKKV</t>
+          <t>IMFHWDRYCPTNYMKHFHILCCGHSKGEGPQCRGCRIPFDINKVHWEFKPTPSDDQGKTNMSQIPYSMVTVPPS</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,11 +3014,11 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>IIGAIAAALPHVINAIKNTF</t>
+          <t>YRTTCCMGCYYIHSSDTSRNQTRYKHSMDCTSGAEYFMARRIGVEHMSATIVI</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C199" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>WKSESVCTPGCVTGVLQTCFLQTITCNCHISK</t>
+          <t>QNNICKTTSKHFKGLCFADSKCRKVCIQEDKFEDGHCSKLQRKCLCTKNC</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -3040,7 +3040,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VIPFVASVAAEMQHVYCAASRKC</t>
+          <t>GIKCRFCCGCCTPGICGVCCRF</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -3053,24 +3053,24 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GICACRRRFCPNSERFSGYCRVNGARYVRCCSRR</t>
+          <t>YLDESNIGRGCVEFHWPNPTHWYGDGVKLTNQWVALDNRGLLQYFCAKQARWDQEGHKWSELNGKILRYARMPRSIE</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>IIGLVSKGTCVLVKTVCKKVLKQG</t>
+          <t>ASIICMGT</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>IQVKNSNWVQTWYWSCYRQTMNGIDKMGSHIFQIENANMM</t>
+          <t>HRVTRHINRGPPWYNGWTAAHYRRVCTMVCTSTQHQAAELKTFVYGRCHVPDYYNSYTILQND</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,76 +3092,76 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>NKYDNKCGSCTVHDNNAYHQFFPNYVWPKK</t>
+          <t>MKLLLLLVISASMLLECLVNADGYIRKKDGCKVSCIIGNEGCRKECVAHGGSFGYCWTWGLACWCENLPDAVTWKSSTNTCGRKK</t>
         </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
       </c>
       <c r="C205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ETEQGVANIRDISDRVSNVAEMQRQIYRQELLKQKYGISKMEIHPISKDEKDGYYNVHIVWYAFCSPMMGVDYWADWFQEMPRKRFHPETR</t>
+          <t>IFTGMPMI</t>
         </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>QFRYSFLMWWQWSCLRTMGENNWTILHYKTQMKQLL</t>
+          <t>VCGETCFGGTCNTPGCSCTWPICTRDGLP</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TCVGGTCNTPGCSCSWPVCTRNGLPICGE</t>
+          <t>CNKCKVGTCTVDQSCQLMSSDYGKNMAKTYMSMFYDMDDHKNQPPEVHAPWQWMDTEAH</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MDIVSLAWAALMVVFTFSLSLVVWGRSGL</t>
+          <t>MTKSELIERLATQQSHIPAKTVEDAVKEMLEHMASTLAQGERIEIRGFGSFSLHYRAPRTGRNPKTGDKVELEGKYVPHFKPGKELRDRANIYG</t>
         </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>GLFLDTLKGLAGKLLQGLKCIKAGCKP</t>
+          <t>MKLVLAIVVILMLLSLSTGAEMSDNHASMSANALRDRLLGPKALLCGGTHARCNRDNDCCGSLCCFGTCISAFVPC</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
         <v>1</v>
@@ -3170,46 +3170,46 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CHWVYNCLYINKCASHYLSMDHVLASGWLRVPIMDIKPVDESVMHFA</t>
+          <t>GLRSKIWLWVLLMIWQESNKFKKM</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>MYTNSDFVVIKALEDGVNVIGLTRGADTRFHHSEKLDKGEVLIAQFTEHTSAIKVRGKAYIQTRHGVIESEGKK</t>
+          <t>WKSESVCTPGCVTGVLQTCFLQTITCNCHISK</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>MNIRPLHDRVIVKRKEVETKSAGGIVLTGSAAAKSTRGEVLAVGNGRILENGEVKPLDVKVGDIVIFNDGYGVKSEKIDNEEVLIMSESDILAIVEA</t>
+          <t>QLGELIQQGGQKIVEKIQKIGQRIRDFFSNLRPRQEA</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>IDWLKLGKMVMDVL</t>
+          <t>ITSISLCTPGCKTGALMGCNMKTATCHCSIHVSK</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,59 +3222,59 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>HSSGYTRPLRKPSRPIFIRPIGCDVCYGIPSSTARLCCFRYGDCCHL</t>
+          <t>EQQHGISQPFLSKKYPPKDMKPRCKLSQSNYYHSEKDGAWPHRMTMPDHMWMKPKIYNPVEWTRMGDYSPYKRGTKKV</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>GILDSFKGVAKGVAKDLAGKLLDKLKCKITGC</t>
+          <t>MTATHIATYYRPWMKYWWNKFAIAHQRHFHCVLAHLMPDHVIEHSWSKTPIRLNYFPAECSNISWAYYSGIHPGDQSLRYMELARFFHKHWR</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>VCGETCFGGTCNTPGCSCTWPICTRDGLP</t>
+          <t>ATWWIIWLSTVVFMDQPSLVDFMQRGWKFLYWCMVCVPEK</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>VIAYTGWTGTRKHGKRPVEMWVMCVWQHDILVYKSFGCDNWQLRQRLLHNNPWVKFVTLVTHTMRQ</t>
+          <t>SWFSRTVHNVGNAVRKGIHAGQGVCSGLGL</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>ATYKVKLVTPQGQQEFDCPDDVYILDQAEEEGIDLPYSCRAGSCSSCAGKVKQGEVDQSDGSFLDDEQMEQGWVLTCVAFPTSDVVIETHKEEELTA</t>
+          <t>HPMLMWSMCSEKQWAMVSKQMPWHRAAIFYIYIPNCVKSLKYQAIQFPDKSYNKIEEDCWWEGQKEHAWFYKQYFTNLWIHEIEQLFGDS</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -3287,7 +3287,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ATCYCRTGRCATRESLSGVCEISGRLYRLCCR</t>
+          <t>KYYGNGVSCNKNGCTVDWSKAIGIIGNNAAANLTTGGAAGWNKG</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -3300,24 +3300,24 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>GLLSKVLGVGKKVLCGVSGLC</t>
+          <t>AMYNFDVGLTMSSEQWCQMARQWCQCTPQA</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>FIGLLISAGKAIHDLIRRRH</t>
+          <t>AEMRNFALRDAQGNEIGVFTGKSPRQAALKAANRGYTEIKLRERGTKKVHIFSGERVQVDKPAGAPAWMPDKIWKPKVKKEGIEKLD</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C222" t="n">
         <v>1</v>
@@ -3326,11 +3326,11 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>YNFIGKLHPKPL</t>
+          <t>GIFSKLAGKKLKNLLISGLKNVGKEVGMDVVRTGIDIAGCKIKGEC</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" t="n">
         <v>1</v>
@@ -3339,20 +3339,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CLDPCYDCMSAFELVLFGCFDAIMIVPDLHGGDSEWRKNACHCNR</t>
+          <t>LTCEIDRSLCLLHCRLKGYLRAYCSQQKVCRCVQ</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>RLHQIQSTMQYWNGQEGFDGK</t>
+          <t>DRTNTENMVRFRGKMSNMDTFMGRIHKSMNVNVLYRLD</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,11 +3365,11 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>CADHNTWTRL</t>
+          <t>ATAVDFGPHGLLPIRPIRIRPLCGKDKS</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C226" t="n">
         <v>1</v>
@@ -3378,24 +3378,24 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>LVNQLGISKSLANTILGAIAVGNLASWVLALVPGPGWATKAALATAETIVKHEGKAAAIAW</t>
+          <t>GLFGRLRDSLQRGGQKILEKAERIWCKIKDIFR</t>
         </is>
       </c>
       <c r="B227" t="n">
         <v>1</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>GFKGAFKNVMFGIAKSAGKSALNALACKIDKSC</t>
+          <t>MKTLLLTLVVVTIVCLDLGYTRICFNHQSSQPQTTKTCSPGESSCYHKQWSDFRGTIIERGCGCPTVKPGINLSCCESEVCNN</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C228" t="n">
         <v>1</v>
@@ -3404,46 +3404,46 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PGTADIAMIEIVNNSAAYNRWGWGGGWHIMSPCEELSGKEPTDPMGVQHPCKFHSICQGMDSGSRDELQPWTHH</t>
+          <t>MSSVVKKPLGGNTDTGDHHNQKTEWPELVGKSVEEAKKVILQDKSEAQIVVLPVGTIVTMEYRIDRVRLFVDSLDKIAQVPRVG</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MRGNNPTLREYILDLHPEPTDLFCYEQLCDSSDEDEIGLDGPDGQAQPATANYYIVTCCYTCGTTVRLCINSTTTDVRTLQQLLMGTCTIVCPSCAQQ</t>
+          <t>GIGASILSAGKSALKGFAKGLAEHFAN</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>GIFGKILGVGKKTLCELSGMC</t>
+          <t>MKLLLLLIVSASMLIESLVNADGYIKRRDGCKVACLVGNEGCDKECKAYGGSYGYCWTWGLACWCEGLPDDKTWKSETNTCGGKK</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>QRPYTQPLIYYPPPPTPPRIYRA</t>
+          <t>GLISGILGVGKMLVCGLSGLC</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -3456,7 +3456,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>VFHLLGKIIHHVGNFVYGFSHVF</t>
+          <t>SGFVLKGYTKTSQ</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,11 +3469,11 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>RRWCFRVCYRGFCYRKCR</t>
+          <t>MANIKSAIKRVKTTEKAEARNISQKSAMRTAVKNAKTAVSNNADNKNELVSLAVKLVDKAAQSNLIHSNKADRIKSQLMTANK</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C234" t="n">
         <v>1</v>
@@ -3482,24 +3482,24 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>PWPTCATRKSPITRKPLSCWNLFINHQRMCFTIDLE</t>
+          <t>VGKTWIKVIRGIGKSKIKWQ</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>GVLDILKGAAKDLAGHVATKVINKI</t>
+          <t>MAANATTNPSQLLPLELVDKCIGSRIHIVMKSDKEIVGTLLGFDDFVNMVLEDVTEFEITPEGRRITKLDQILLNGNNITMLVPGGEGPEV</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C236" t="n">
         <v>1</v>
@@ -3508,37 +3508,37 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ILQKAVLDCLKAAGSSLSKAAITAIYNKIT</t>
+          <t>ATYKVKLVTPQGQQEFDCPDDVYILDQAEEEGIDLPYSCRAGSCSSCAGKVKQGEVDQSDGSFLDDEQMEQGWVLTCVAFPTSDVVIETHKEEELTA</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>GLFSVVTGVLKAVGKNVAKNVGGSLLEQLKCKISGGC</t>
+          <t>HSIQMAPMDTPGTHMADDTLRWGRVESVFMSYGCKVANIYSPTKNHNYHNLRILKHAGYDVVCHQDWYDQDRVCSPWRFHHTMQDRQA</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>KGGSGVIHTISHEVIYNSWNFVFTCCS</t>
+          <t>MAAETLTELEAAIETVVSTFFTFAGREGRKGSLNINEFKELATQQLPHLLKDVGSLDEKMKTLDVNQDSELRFSEYWRLIGELAKEVRKEKALGIRKK</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3547,7 +3547,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ATYKVKLITPEGPVEFNCPDDVYILDSAEENGHDLPYSCRAGACSSCAGKITAGNVDQSDNSFLDDDQVAEGFVLTCVAYPKSNVTIETHKEDDLVG</t>
+          <t>SHPNDQLNRNLMFYDCWVMHTLYNWRVSCNNSVRNFGKCIAVMDAHHRHGSLNIMHQVNYEKHWRLNFGREAIWHQRCNGFAPCMYEINQGDF</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -3560,24 +3560,24 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MAEDIKTKIKNYKTAPFDSRFPNQNQTKNCWQNYLDFHRCEKAMTAKGGDVSVCEWYRRVYKSLCPVSWVSAWDDRIAEGTFPGKI</t>
+          <t>ILQKAVLDCLKAAGSSLSKAAITAIYNKIT</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>DNVIKLNIWRGDKHAFNYMAKEFECWSKA</t>
+          <t>IDWKKLLDAAKQIL</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C242" t="n">
         <v>1</v>
@@ -3586,7 +3586,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>YPSMSCIWHSVPQCSKEGRRAERFGYMSCRWCHVMTLT</t>
+          <t>IQVKNSNWVQTWYWSCYRQTMNGIDKMGSHIFQIENANMM</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -3599,20 +3599,20 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MATFKVTLINEAEGTKHEIEVPDDEYILDAAEEQGYDLPFSCRAGACSTCAGKLVSGTVDQSDQSFLDDDQIEAGYVLTCVAYPTSDVVIQTHKEEDLY</t>
+          <t>FASLLGKALKALAKQ</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>GLLDTFKNLALNAAKSAGVSVLNSLSCKLSKTC</t>
+          <t>FLGVVFKLASKVFPAVFGKV</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -3625,7 +3625,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>GLLDFVTGVGKDIFAQLIKQI</t>
+          <t>SLGPAIKATRQVCPKATRFVTVSCKKSDCQ</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -3638,11 +3638,11 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>CWLERPTFNNSRRNKTFLVIIIKC</t>
+          <t>QKLCERSSGTWSGVCGNNNACKNQCINLEGARHGSCNYIFPYHRCICYFPC</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
         <v>1</v>
@@ -3651,7 +3651,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>WIGEFRVKIHTSWQAHTHFNRVTVKPEKWAGDCINFKFVPMSAPKAK</t>
+          <t>RIMIWYASVPQPIFQRDRFQCQDSQVQKVMPHLFCFFMYMSKCPALSPAEQFYYKKRLRFARFPQKAYSQYNESWTMRTTREASCF</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -3664,50 +3664,50 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>GEILCNLCTGLINTLENLLTTKGADKVKDYISSLCNKASGFIATLCTKVLDFGIDKLIQLIEDKVDANAICAKIHAC</t>
+          <t>GLMDVFKGAAKNLLASALDKIRCKVTKC</t>
         </is>
       </c>
       <c r="B249" t="n">
         <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>DAEFRHDSGYEVHHQKLVFFAEDVGSNKGAIIGLMVGGVV</t>
+          <t>RLHQIQSTMQYWNGQEGFDGK</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>GIEATRGHHQCWKARDRKVDQNDCSGRQAMGETFWPTVMYLHSGKSPREEQN</t>
+          <t>FFPIIAGMAAKLIPSLFCKITKKC</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>ATAVDFGPHGLLPIRPIRIRPLCGKDKS</t>
+          <t>PLLWKESGFKCQKNTMP</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -3716,7 +3716,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>NLSIGWGPIPDGIPVGFFQKNRHMPQSTCWFHSDRISYNFIRRKGWWNNMARPTHHDKPHVCFAFFRAVGINSNRSKMTMCPEGANGEEQPPTGLY</t>
+          <t>GNGIYSSWRMDVAFSSQKCIFWTTHVFMAYDRNMHPYRGEMYWTKQQ</t>
         </is>
       </c>
       <c r="B253" t="n">
@@ -3729,7 +3729,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>GLFGRLRDSLQRGGQKILEKAERIWCKIKDIFR</t>
+          <t>RADTQTYQPYNKDWIKEKIYVLLRRQAQQAGK</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,24 +3742,24 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>MAHKKAGGSTRNGRDSESKRLGVKLFGGQAVKAGNILVRQRGTKFHAGYGVGLGKDHTLFAKVDGVVKFETKGAFGRKYVSIVAA</t>
+          <t>MALTKAEMSEYLFDKLGLSKRDAKELVELFFEEIRRALENGEQVKLSGFGNFDLRDKNQRPGRNPKTGEDIPITARRVVTFRPGQKLKSRVENASPKDE</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>0</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>AQRCGDQARGAKCPNCLCCGKYGFCGSGDAYCGAGSCQSQCRGCR</t>
+          <t>MRGSSNKKIDPRIHYLVPKHEVLNIDEAYKILKELGIRPEQLPWIRASDPVARSINAKPGDIIRIIRKSQLYGEVVSYRYVISG</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C256" t="n">
         <v>1</v>
@@ -3768,11 +3768,11 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>GLMDVFKGAAKNLLASALDKIRCKVTKC</t>
+          <t>MKKTLLIAASLSFFSASALATPDCVTGKVEYTKYNDDDTFTVKVGDKELFTNRWNLQSLLLSAQITGMTVTIKTNACHNGGGFSEVIFR</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,11 +3781,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>IFNFEQYPHTQPAKFIADQ</t>
+          <t>RFIPPILRPPVRPPFRPPFRPPFRPPPIIRFFGG</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="n">
         <v>1</v>
@@ -3794,20 +3794,20 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>QKLCERSSGTWSGVCGNNNACKNQCINLEGARHGSCNYIFPYHRCICYFPC</t>
+          <t>MNIRPLHDRVIVKRKEVETKSAGGIVLTGSAAAKSTRGEVLAVGNGRILENGEVKPLDVKVGDIVIFNDGYGVKSEKIDNEEVLIMSESDILAIVEA</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C259" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>LTCVTKDTIFGITTQNCPAGQNLCFIRRHYINHRYTEITRGCTATCPKPTNVRETIHCCNTDKCNE</t>
+          <t>YLDHGLGAPAPYVDPLEPKREVCELNPDCDELADQMGFQEAYRRFYGTT</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,33 +3820,33 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>PWYAFSIERMVPGRLHKQKMGDTGNIPDHKAMSPVCEKCANEQVIFQLEQGSIEIDYIPRY</t>
+          <t>GDVAAGASVFSANCAACHMGGRNVIVANKTLSKSDLAKYLKGFDDDAVAAVAYQVTNGKNAMPGFNGRLSPKQIEDVAAYVVDQAEKGW</t>
         </is>
       </c>
       <c r="B261" t="n">
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>HFLGGTLVNLAKKIL</t>
+          <t>YTDMIGCHPHCFCNRKHYNDSYSDVTDTKKVELHKNWPARWTLNESEVPHSYTFMCYNEACGYFNAHWRWVWDVRCILSHA</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>NPVSCVRNKGICVPIRCPGSMKQIGTCVGRAVKCCRKK</t>
+          <t>HFLGGTLVNLAKKIL</t>
         </is>
       </c>
       <c r="B263" t="n">
@@ -3859,46 +3859,46 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>VKYVTETQHFNMWIAPWMAPRQTWWTFGFIGMRVSVMWTAYVPQWDPWPYADTLLCPN</t>
+          <t>DEHNIVDVSGPECRANWR</t>
         </is>
       </c>
       <c r="B264" t="n">
         <v>0</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>KVPIGAIKKGGKIIKKGLGVIGAAGTAHEVYSHVKNRH</t>
+          <t>ADLANGAKVFSGNCAACHMGGGNVVMANKTLKKEALEQFGMYSEDAIIYQVQHGKNAMPAFAGRLTDEQIQDVAAYVLDQAAKGWAG</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>KFKPEPVQCPVYSHWPPRGKVDTEFVLPPKISSGWEVQGTHFIENKTKYPPCSHCTPHWKEFKYHQHGIDFFNTWDCHYGCEFMYDCYWI</t>
+          <t>WNPFKELERAGQRVRDAIISAGPAVATVGQAAAIARG</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>THWEFVEFLSITWKAAGSTGIRDLYFVDARRIPNMIPGNYNGTEKKVMCGDTEAARKIMD</t>
+          <t>QLEGMFHPANLGISVYAYATLLCNWQSYQEHRQFAMPGELEAMYHPKKRPCETDNENHDDDGHCEMHGSPYLAFFSRIYKDIECTGSGWNPK</t>
         </is>
       </c>
       <c r="B267" t="n">
@@ -3911,33 +3911,33 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>QDDEYDMMKRQIFTEEKFVQLFAWTPQTTPTSNWCEAGEMVKRYWCVERHRWREEPQPKPCMSYADSESETESESFWEASVLTMCGREMILWLPSDLVR</t>
+          <t>MTPFWRGVSLRPIGASCRDDSECITRLCRKRRCSLSVAQE</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>GLFVGLAKVAAHNNPAIAEHFQA</t>
+          <t>MVSQLFEEKAKAVNELPTKPSTDELLELYGLYKQATVGDNDKEKPGIFNMKDRYKWEAWEDLKGKSQEDAEKEYIAYVDNLIAKYSS</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>YLDHGLGAPAPYVDPLEPKREVCELNPDCDELADQMGFQEAYRRFYGTT</t>
+          <t>MGQEQDTPWILSTGHISTQKRQDGQQTPKLEHRNSTRLMGHCQKTMNQVVMPKQIVYWKQWLSLRNPILVFLKTRVLKRWRLFSKHE</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,24 +3950,24 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>MTKSELIERLATQQSHIPAKTVEDAVKEMLEHMASTLAQGERIEIRGFGSFSLHYRAPRTGRNPKTGDKVELEGKYVPHFKPGKELRDRANIYG</t>
+          <t>CYINNCPLG</t>
         </is>
       </c>
       <c r="B271" t="n">
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AYPGNGVHCGKYSCTVDKQTAIGNIGNNAA</t>
+          <t>MVPPVQVSPLIKLGRYSALFLGVAYGATRYNYLKPRAEEERRIAAEEKKKQDELKRIARELAEDDSILK</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
         <v>1</v>
@@ -3976,20 +3976,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>FLPIIAGAAAKVVQKIFCAISKKC</t>
+          <t>TQHPCQPCEDAVLWVDRDRKIVNREACDPHDLDIKTSTLEAGIESEMQAFFCGWFMMMPPRYPSMRIDHSWNVKYMTSCKRKGR</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NWPHPFFHDFFYTARDLNPWPM</t>
+          <t>LSWKICDKVCRVCRCFMDYAWWGHFHEECEGDHQLRLKEARCHEFNVFFDWPEFVRIIGCAGHYGSLRTRTAPLDWQSGWPHAFFWPCQDSFKYP</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,33 +4002,33 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>FNHVKNRKMNAKQKMMVQWYQLPVNPSQRDILYNVKNYRWRLMTYEPWEKGSTF</t>
+          <t>DTLACRQSHGSCSFVACRAPSVDIGTCRGGKLKCCKWAPSS</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GLMDTVKNVAKNLAGHMLDKLKCKITGC</t>
+          <t>ENLLYTNKKCTWNQFSFGRVSWFCSKMYDGCRHWMEILWQEVPYSCSISKNIESHQWTDMVVEWGVWHPKEIANACWFVDGYCQHFCLVHKCSDSPLI</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>YTDMIGCHPHCFCNRKHYNDSYSDVTDTKKVELHKNWPARWTLNESEVPHSYTFMCYNEACGYFNAHWRWVWDVRCILSHA</t>
+          <t>GTVSCQKHQDSHKDVAGPATMERLCRAIGIQNWFLFIMRHDKHWLNSPHYDVHRWHHHLVPEHIHQEYHGELESHLLFQL</t>
         </is>
       </c>
       <c r="B277" t="n">
@@ -4041,7 +4041,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>DSHAKRHHGYKRKFHEKHHSHRGYR</t>
+          <t>AERVGAGAPVYL</t>
         </is>
       </c>
       <c r="B278" t="n">
@@ -4054,7 +4054,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>EYSCYIQRADLHCIYTSLDTGHVNLHDSLWLV</t>
+          <t>ALPVINLDYSPFFKVQFNFSHYHQWEEDQSFSTCSRANEKTTSLLKND</t>
         </is>
       </c>
       <c r="B279" t="n">
@@ -4067,11 +4067,11 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ITSISLCTPGCKTGALMGCNMKTATCHCSIHVSK</t>
+          <t>IEVLLGGDDGSLAFIPNDFSVAAGEKIVFKNNAGFPHNVVFDEDEIPSGVDAGKISMNEEDLLNAPGEVYKVNLTEKGSYSFYCSPHQGAGMVGKVTVN</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C280" t="n">
         <v>1</v>
@@ -4080,7 +4080,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>GNGIYSSWRMDVAFSSQKCIFWTTHVFMAYDRNMHPYRGEMYWTKQQ</t>
+          <t>PGTADIAMIEIVNNSAAYNRWGWGGGWHIMSPCEELSGKEPTDPMGVQHPCKFHSICQGMDSGSRDELQPWTHH</t>
         </is>
       </c>
       <c r="B281" t="n">
@@ -4093,11 +4093,11 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>LMVDKCHNHAHPQFMLNQNEHYQKPG</t>
+          <t>WLNALLHHGLNCAKGVLA</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C282" t="n">
         <v>1</v>
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>RFIPPILRPPVRPPFRPPFRPPFRPPPIIRFFGG</t>
+          <t>GLLSGILGAGKHIICGLSGLC</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,7 +4119,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GIFSKLAGKKLKNLLISGLKNVGKEVGMDVVRTGIDIAGCKIKGEC</t>
+          <t>FLPLLLAGLPLKLCFLFKKC</t>
         </is>
       </c>
       <c r="B284" t="n">
@@ -4132,7 +4132,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>YRTTCCMGCYYIHSSDTSRNQTRYKHSMDCTSGAEYFMARRIGVEHMSATIVI</t>
+          <t>NPYISASYGDCDIFWMNEFLWIPTWPGSLTPAEGDSSYFTDQGCNHENGKYSHKHFNIWKLG</t>
         </is>
       </c>
       <c r="B285" t="n">
@@ -4145,7 +4145,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>MKTLLLTLVVVTIVCLDLGYTRICFNHQSSQPQTTKTCSPGESSCYHKQWSDFRGTIIERGCGCPTVKPGINLSCCESEVCNN</t>
+          <t>RPRHVSHEQKCVTERFALFFYVNKEIKNRWGQWDVVPRIQKYIVVNIFYLPTRMDHILPTGSNWNEYKAWQTCCKVGVMPPHQIYGGASLCAQWCPA</t>
         </is>
       </c>
       <c r="B286" t="n">
@@ -4158,33 +4158,33 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>HYWGGLKSARLQQLCNNMFCNGSEPCVWKIGVGHFAEFERHQNKVDMGIMIYFYNYVC</t>
+          <t>LSLKSNERFIYYFREASD</t>
         </is>
       </c>
       <c r="B287" t="n">
         <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>DTLACRQSHGSCSFVACRAPSVDIGTCRGGKLKCCKWAPSS</t>
+          <t>VWRIWGEPHRNQMPTDMPERCSQQFEKIFAEDDIGDVCARQAHCTYDSKCHQGWPSFWQMAGK</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>SWLSKTAKKLENSAKKRISEGIAIAIQGGPR</t>
+          <t>TCSYTMEA</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,24 +4197,24 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>RMRAYCSHGHIRSRLRAGGWEPIAFTPPLIFKTKNVVWDWG</t>
+          <t>IIGAIAAALPHVINAIKNTF</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C290" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>SLGPAIKATRQVCPKATRFVTVSCKKSDCQ</t>
+          <t>MEARDILKRPVITEKSSEAMAEDKYTFDVDTRVNKTQVKMAVEEIFNVKVASVNIMNYKPKKKRMGRYQGYTNKRRKAIVTLKEGSIDLFN</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C291" t="n">
         <v>1</v>
@@ -4223,11 +4223,11 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>QGVRSYLSCWGNRGICLLNRCPGRMRQIGTCLAPRVKCCR</t>
+          <t>QMQKDGLQSIPWQKAQFAEGEAGRNDQPA</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C292" t="n">
         <v>1</v>
@@ -4236,7 +4236,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>DILRG</t>
+          <t>FYWWYYVQEQDTPDNWMKHRKCNDT</t>
         </is>
       </c>
       <c r="B293" t="n">
@@ -4249,11 +4249,11 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>KKLLKWLKKLL</t>
+          <t>VLEFTQFFTEKYFVSMKCTCRYEARMPVFM</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
         <v>1</v>
@@ -4262,11 +4262,11 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>GRGREFMSNLKEKLSGVKEKMKNS</t>
+          <t>MYTNSDFVVIKALEDGVNVIGLTRGADTRFHHSEKLDKGEVLIAQFTEHTSAIKVRGKAYIQTRHGVIESEGKK</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,20 +4275,20 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>RWKFFKKIERVGQNVRDGLIKAGPAIQVLGAAKAL</t>
+          <t>FLGLIFHGLVHAGKLIHGLIHRNRG</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>EQVLMQYHRVNAIWMHDQSQKICKWS</t>
+          <t>RYGGSHVRHKRKFQHQFRDVDQLIWPKRKALHYCFYLEIECGTNAQM</t>
         </is>
       </c>
       <c r="B297" t="n">
@@ -4301,11 +4301,11 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FFPIIAGMAAKLIPSLFCKITKKC</t>
+          <t>MSEKTLTRMDLSEAVFREVGLSRNESAQLVETVLQHMSDALVRGETVKISSFGTFSVRDKTSRMGRNPKTGEEVPISPRRVLSFRPSHLMKDRVAERNAK</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C298" t="n">
         <v>1</v>
@@ -4314,7 +4314,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>SALVGCWTKSYPPNPCFGRG</t>
+          <t>AALRGCWTKSIPPKPCPGKR</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,7 +4327,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>GIKDWIKGAAKKLIKTVASNIANQ</t>
+          <t>YVSCLFRGARCRVYSGRSCCFGYYCRRDFPGSIFGTCSRRNF</t>
         </is>
       </c>
       <c r="B300" t="n">
@@ -4340,11 +4340,11 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>GIKCRFCCGCCTPGICGVCCRF</t>
+          <t>VDKWLPHPVSDEGQKRKDRDELRCIYQ</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
         <v>1</v>
@@ -4353,7 +4353,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>KYYGNGVHCTKSGCSVNWGEAASAGIHRLANGGNGFW</t>
+          <t>VLPLISMALGKLL</t>
         </is>
       </c>
       <c r="B302" t="n">
@@ -4366,7 +4366,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>GRKSDCFRKSGFCAFLKCPSLTLISGKCSRFYLCCKRIR</t>
+          <t>RICRCICGRRICRCICGR</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,7 +4379,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ELCEKASKTWSGNCGNTGHCDNQCKSWEGAAHGACHVRNGKHMCFCYFNC</t>
+          <t>SWLSKTAKKLENSAKKRISEGIAIAIQGGPR</t>
         </is>
       </c>
       <c r="B304" t="n">
@@ -4392,7 +4392,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>VNWKKILGKIIKVAK</t>
+          <t>KVPIGAIKKGGKIIKKGLGVIGAAGTAHEVYSHVKNRH</t>
         </is>
       </c>
       <c r="B305" t="n">
@@ -4405,72 +4405,72 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>TKRCYKCNKKPHYWYTKGYICVHEHRFPFWPRWYCHTIFETSCHGFAYADTKCALNHQFKW</t>
+          <t>QGPPISIDLSLELLRKMIEIEKQEKEKQQAANNRLLLDTI</t>
         </is>
       </c>
       <c r="B306" t="n">
         <v>0</v>
       </c>
       <c r="C306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>FPRPLYEERWRLTFLMQTVDGSMTYSPIGRDDYYGGMPCHPAVQKGSRCNQQYHSFANGDDPLY</t>
+          <t>LVTLVFV</t>
         </is>
       </c>
       <c r="B307" t="n">
         <v>0</v>
       </c>
       <c r="C307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>RMEDNRLRENCIPVVLSPWHDPNMMHSHNRFEWKVVWSIYKRDVDDGSLARMNNPKIPRKGWDPKIDIRYVMTAIKAICWC</t>
+          <t>AQRCGDQARGAKCPNCLCCGKYGFCGSGDAYCGAGSCQSQCRGCR</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>GTAVCTWFFHYNSIKTNINVIWTWQGVDTWRNDWHGNKPFQHISTTTYYHFVECYRDYKDHMVCR</t>
+          <t>CAWYNISCRLGNKGAYCTLTVECMPSCN</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>CLAHFMPLGIKM</t>
+          <t>MYGHSTMFRCSLPDCFSKSSHSYCVNTYQEVCTMHGHIHSLPSVYDRLPVCAHKPHFSVHVQPFS</t>
         </is>
       </c>
       <c r="B310" t="n">
         <v>0</v>
       </c>
       <c r="C310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>MPITKEEKQKVIQEFARFPGDTGSTEVQVALLTLRINRLSEHLKVHKKDHHSHRGLLMMVGQRRRLLRYLQREDPERYRALIEKLGIRG</t>
+          <t>KFKPEPVQCPVYSHWPPRGKVDTEFVLPPKISSGWEVQGTHFIENKTKYPPCSHCTPHWKEFKYHQHGIDFFNTWDCHYGCEFMYDCYWI</t>
         </is>
       </c>
       <c r="B311" t="n">
@@ -4483,20 +4483,20 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ADAAAGGKVFNANCAACHASGGGQINGAKTLKKNALTANGKDTVEAIVAQVTNGKGAMPAFKGRLSDDQIQSVALYVLDKAEKGW</t>
+          <t>GIHDILKYGKPS</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>VDKWLPHPVSDEGQKRKDRDELRCIYQ</t>
+          <t>EYRVSVAGMWLKERGLIKQG</t>
         </is>
       </c>
       <c r="B313" t="n">
@@ -4509,20 +4509,20 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>HPMLMWSMCSEKQWAMVSKQMPWHRAAIFYIYIPNCVKSLKYQAIQFPDKSYNKIEEDCWWEGQKEHAWFYKQYFTNLWIHEIEQLFGDS</t>
+          <t>SIVPIRCRSNRDCRRFCGFRGGRCTYARQCLCGY</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>GLLGPLLKIAAKVGSNLL</t>
+          <t>GLMDTVKNVAKNLAGHMLDKLKCKITGC</t>
         </is>
       </c>
       <c r="B315" t="n">
@@ -4535,7 +4535,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>AFKVKLLTPDGPKEFECPDDVYILDQAEELGIELPYSCRAGSCSSCAGKLVEGDLDQSDQSFLDDEQIEEGWVLTCAAYPRSDVVIETHKEEELTG</t>
+          <t>MRGNNPTLREYILDLHPEPTDLFCYEQLCDSSDEDEIGLDGPDGQAQPATANYYIVTCCYTCGTTVRLCINSTTTDVRTLQQLLMGTCTIVCPSCAQQ</t>
         </is>
       </c>
       <c r="B316" t="n">
@@ -4548,7 +4548,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>MSEKTLTRMDLSEAVFREVGLSRNESAQLVETVLQHMSDALVRGETVKISSFGTFSVRDKTSRMGRNPKTGEEVPISPRRVLSFRPSHLMKDRVAERNAK</t>
+          <t>MPQLDTSTWFITIISSMATLFILFQLKISSQTFPAPPSPKTMATEKTNNPWESKWTKIYLPLSLPPQ</t>
         </is>
       </c>
       <c r="B317" t="n">
@@ -4561,59 +4561,59 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>RCQQETLAQYMTTDWSPLRATFHDK</t>
+          <t>INLKAIAALAKKLL</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>GAILCNLCKDTVKLVENLLTVDGAQAVRQYIDNLCGKASGFLGTLCEKILSFGVDELVKLIENHVDPVVVCEKIHAC</t>
+          <t>GFGCNGPWDEDDMQCHNHCKSIKGYKGGYCAKGGFVCKCY</t>
         </is>
       </c>
       <c r="B319" t="n">
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>RPRHVSHEQKCVTERFALFFYVNKEIKNRWGQWDVVPRIQKYIVVNIFYLPTRMDHILPTGSNWNEYKAWQTCCKVGVMPPHQIYGGASLCAQWCPA</t>
+          <t>GILDTIKNAAKTVAVGLLEKIKCKMTGC</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MELTPREKDKLLLFTAALVAERRLARGLKLNYPESVALISAFIMEGARDGKSVASLMEEGRHVLTREQVMEGVPEMIPDIQVEATFPDGSKLVTVHNPII</t>
+          <t>YNFIGKLHPKPL</t>
         </is>
       </c>
       <c r="B321" t="n">
         <v>0</v>
       </c>
       <c r="C321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DARVGEICRNTFSYTITIVDARDVSYKNTPPRARYQEQLPSFMHYHECIMRDNDVNMVGACPIISFYRWFPGIMRMH</t>
+          <t>EQQNMPMNNLWNIARRVALWRPGGYQMMPVFNMIIWVLHFDAYKKQGNPKFNIPLWFKFQHCRAQW</t>
         </is>
       </c>
       <c r="B322" t="n">
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>SHPNDQLNRNLMFYDCWVMHTLYNWRVSCNNSVRNFGKCIAVMDAHHRHGSLNIMHQVNYEKHWRLNFGREAIWHQRCNGFAPCMYEINQGDF</t>
+          <t>GTAVCTWFFHYNSIKTNINVIWTWQGVDTWRNDWHGNKPFQHISTTTYYHFVECYRDYKDHMVCR</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,24 +4639,24 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ATWWIIWLSTVVFMDQPSLVDFMQRGWKFLYWCMVCVPEK</t>
+          <t>QQRQQPNWLKNCFACLA</t>
         </is>
       </c>
       <c r="B324" t="n">
         <v>0</v>
       </c>
       <c r="C324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>GIMDSVKGLAKNLAGKLLDSLKCKITGC</t>
+          <t>PWYAFSIERMVPGRLHKQKMGDTGNIPDHKAMSPVCEKCANEQVIFQLEQGSIEIDYIPRY</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C325" t="n">
         <v>1</v>
@@ -4665,7 +4665,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>WNPFKELERAGQRVRDAIISAGPAVATVGQAAAIARG</t>
+          <t>GTLPCESCVWIPCISSVVGCSCKSKVCYKN</t>
         </is>
       </c>
       <c r="B326" t="n">
@@ -4678,37 +4678,37 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>FEPTTNEYGGHWARLFQKADLVARRSQWNRLHTYSFWGDPEWWEEECRQ</t>
+          <t>GEILCNLCTGLINTLENLLTTKGADKVKDYISSLCNKASGFIATLCTKVLDFGIDKLIQLIEDKVDANAICAKIHAC</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>MKLLLLLVISASMLLECLVNADGYIRKKDGCKVSCIIGNEGCRKECVAHGGSFGYCWTWGLACWCENLPDAVTWKSSTNTCGRKK</t>
+          <t>QGVRNHVTCRIYGGFCVPIRCPGRTRQIGTCFGRPVKCCRRW</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ILGTILGLLKGL</t>
+          <t>MQLTMREQEKMMISLAAMIAQRRKDKGIKLNHPEAVALITDYVLEGAREGKTVAQLMDEARNLLTREDVMEGIAEMIPMIQVEATFTDSTKLVTVHDPIQ</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C329" t="n">
         <v>1</v>
@@ -4717,24 +4717,24 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>MPQLDTSTWFITIISSMATLFILFQLKISSQTFPAPPSPKTMATEKTNNPWESKWTKIYLPLSLPPQ</t>
+          <t>LLSLALAALPKLFCLIFKKC</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>GFVDFLKKVAGTIANVVT</t>
+          <t>CADHNTWTRL</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C331" t="n">
         <v>1</v>
@@ -4743,24 +4743,24 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>MVDMKASMFLTFAGLVLLFVVCYASESEEKEFPKEMLSSIFAVDNDFKQEERDCAGYMRECKEKLCCSGYVCSSRWKWCVLPAPWRR</t>
+          <t>GIFSNMYARTPAGYFRGPAGYAAN</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>VLPLISMALGKLL</t>
+          <t>MTDDKAGPSGLSLKEAEEIHSYLIDGTRVFGAMALVAHILSAIATPWLG</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C333" t="n">
         <v>1</v>
@@ -4769,7 +4769,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>AALRGCWTKSIPPKPCPGKR</t>
+          <t>GLVSSIGRALGGLLADVVKSKGQPA</t>
         </is>
       </c>
       <c r="B334" t="n">
@@ -4782,7 +4782,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>STAERLGDLHIFIKWTEVLAWWWRPTYYHGMWQWFWFQEYLVSNAIKHMKFVCYLVTQWMNSKPIMINLTFVFERRMTKYSWVEIQHK</t>
+          <t>MAAKILALWLLLAGTVFPQGCCQHWSYGLSPGGKRDLDNFSDTLGNMVEEFPRVEAPCSVFGCAEESPFAKMYRVKGLLASVAERENGHRTFKK</t>
         </is>
       </c>
       <c r="B335" t="n">
@@ -4795,11 +4795,11 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>GWLKKIGKKIERVGQHTRDATIQTIAVAQQAANVAATAR</t>
+          <t>MAEDIKTKIKNYKTAPFDSRFPNQNQTKNCWQNYLDFHRCEKAMTAKGGDVSVCEWYRRVYKSLCPVSWVSAWDDRIAEGTFPGKI</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C336" t="n">
         <v>0</v>
@@ -4808,24 +4808,24 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>WKSESVCTPGCVTGLLQTCFLQTITCNCKISK</t>
+          <t>THWEFVEFLSITWKAAGSTGIRDLYFVDARRIPNMIPGNYNGTEKKVMCGDTEAARKIMD</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>ASIICMGT</t>
+          <t>GLMDTVKNAAKNLAGQLLDTIKCKMTGC</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C338" t="n">
         <v>1</v>
@@ -4834,59 +4834,59 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>MSKAHPPELKKFMDKKLSLKLNGGRHVQGILRGFDPFMNLVIDECVEMATSGQQNNIGMVVIRGNSIIMLEALERV</t>
+          <t>GLDSATSYMLHWFIPSLTYIDF</t>
         </is>
       </c>
       <c r="B339" t="n">
         <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>NPYISASYGDCDIFWMNEFLWIPTWPGSLTPAEGDSSYFTDQGCNHENGKYSHKHFNIWKLG</t>
+          <t>QGVRSYLSCWGNRGICLLNRCPGRMRQIGTCLAPRVKCCR</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C340" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>FPDQSTRLEEEVMQNRRPGIITCTGHPPQIHHWWPWFIMMALFDEWPDGFI</t>
+          <t>VIPFVASVAAEMQHVYCAASRKC</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>ENFFKEIERAGQRIRDAIISAAPAVETLAQAQKIIKGGD</t>
+          <t>MDIVSLAWAALMVVFTFSLSLVVWGRSGL</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>MAEPGIDKLFGMVDSKYRLTVVVAKRAQQLLRHGFKNTVLEPEERPKMQTLEGLFDDPNAVTWAMKELLTGRLVFGENLVPEDRLQKEMERLYPVEREE</t>
+          <t>FPDQSTRLEEEVMQNRRPGIITCTGHPPQIHHWWPWFIMMALFDEWPDGFI</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,7 +4899,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>LTCEIDRSLCLLHCRLKGYLRAYCSQQKVCRCVQ</t>
+          <t>GIMDSVKGLAKNLAGKLLDSLKCKITGC</t>
         </is>
       </c>
       <c r="B344" t="n">
@@ -4912,7 +4912,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>FIGINPFWPNMLPACPEWVWHMVGMMPKNACGGQEQLKIEQWHTFQLGDLPEFSAGAKCNVPWTPYNEAFIWPIQCR</t>
+          <t>MVNMKASMFLTFAGLVLLFVVCYASESEEKEFPKEMLSSIFAVGNDFKQEERDCAGYMRECKEKLCCSGYVCSSRWKWCVLPAPWRR</t>
         </is>
       </c>
       <c r="B345" t="n">
@@ -4925,59 +4925,59 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>IMFHWDRYCPTNYMKHFHILCCGHSKGEGPQCRGCRIPFDINKVHWEFKPTPSDDQGKTNMSQIPYSMVTVPPS</t>
+          <t>RWKVFKKIEKVGRNIRDGVIKAGPAIAVVGQAKAL</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C346" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>QLEGMFHPANLGISVYAYATLLCNWQSYQEHRQFAMPGELEAMYHPKKRPCETDNENHDDDGHCEMHGSPYLAFFSRIYKDIECTGSGWNPK</t>
+          <t>GLFPKFNKKKVKTGIFDIIKTVGKEAGMDVLRTGIDVIGCKIKGEC</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ENEHCHFMMGNVDLE</t>
+          <t>MQPRLLLLAAFLALLVLPEATKAEEGSLLDKMQGYVKEATKTAKDALSSVQESQVAQQARDWMTESFSSLKDYWSSFKGKFTDFWESATSPTQSPP</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>LVTLVFV</t>
+          <t>LAWHKMVQFTGIWINPSRCGNQSPGFQR</t>
         </is>
       </c>
       <c r="B349" t="n">
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>QMQKDGLQSIPWQKAQFAEGEAGRNDQPA</t>
+          <t>MNATIFALLLLLNLAMYNAAEQSSETDMDDTLLIPENYRKGCFKEGHSCPKTAPCCRPLVCKGPSPNTKKCTRP</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,24 +4990,24 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>AEMRNFALRDAQGNEIGVFTGKSPRQAALKAANRGYTEIKLRERGTKKVHIFSGERVQVDKPAGAPAWMPDKIWKPKVKKEGIEKLD</t>
+          <t>LTCVTKDTIFGITTQNCPAGQNLCFIRRHYINHRYTEITRGCTATCPKPTNVRETIHCCNTDKCNE</t>
         </is>
       </c>
       <c r="B351" t="n">
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>RKSKEKIGKEFKRIVQRIKDFLRNLVPRTES</t>
+          <t>DILRG</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C352" t="n">
         <v>1</v>
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>HLWMDIND</t>
+          <t>GRKSDCFRKSGFCAFLKCPSLTLISGKCSRFYLCCKRIR</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,11 +5029,11 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>PLAAAHPDTNGTLPLIQDRHQKFCKTGWEIF</t>
+          <t>IIGLVSKGTCVLVKTVCKKVLKQG</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C354" t="n">
         <v>1</v>
@@ -5042,20 +5042,20 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>VWRIWGEPHRNQMPTDMPERCSQQFEKIFAEDDIGDVCARQAHCTYDSKCHQGWPSFWQMAGK</t>
+          <t>DSHAKRHHGYKRKFHEKHHSHRGYR</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>GLNTLKKVFQGLHEAIKLINNHVQ</t>
+          <t>GAILCNLCKDTVKLVENLLTVDGAQAVRQYIDNLCGKASGFLGTLCEKILSFGVDELVKLIENHVDPVVVCEKIHAC</t>
         </is>
       </c>
       <c r="B356" t="n">
@@ -5068,24 +5068,24 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MALTKAEMSEYLFDKLGLSKRDAKELVELFFEEIRRALENGEQVKLSGFGNFDLRDKNQRPGRNPKTGEDIPITARRVVTFRPGQKLKSRVENASPKDE</t>
+          <t>GILGNIVGMGKKVVCGLSGLC</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C357" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>EHYCKRQYIGQKWIVSFQKPSWFYM</t>
+          <t>FLPIIAGAAAKVVEKIFCAISKKC</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C358" t="n">
         <v>1</v>
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>MAEWVEQVNFSNYQCIPGGKHCHVNQEDRDIVTTTGQSTDYLKKCC</t>
+          <t>PLYNISQECHTYRWMFDTEMDLVKGPTEPGTGADIVGIETMYLLELNELWKEWVIYISRWKMHSFPPDFFG</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,11 +5107,11 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>AERVGAGAPVYL</t>
+          <t>MELTPREKDKLLLFTAALVAERRLARGLKLNYPESVALISAFIMEGARDGKSVASLMEEGRHVLTREQVMEGVPEMIPDIQVEATFPDGSKLVTVHNPII</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C360" t="n">
         <v>1</v>
@@ -5120,7 +5120,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>EYRVSVAGMWLKERGLIKQG</t>
+          <t>DNVIKLNIWRGDKHAFNYMAKEFECWSKA</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GIFSLVKGAAKLAGKGLAKEGGKFGLELIACKIAKQC</t>
+          <t>GFVDFLKKVAGTIANVVT</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,7 +5146,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>LHTQIECSFI</t>
+          <t>CLDPCYDCMSAFELVLFGCFDAIMIVPDLHGGDSEWRKNACHCNR</t>
         </is>
       </c>
       <c r="B363" t="n">
@@ -5159,33 +5159,33 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MKILLAIALMLSTVMWVSTQQPQEVHTYCGRHLARTMADLCWEEGVDKRSDAQFASYGSAWLMPYSAGRGIVDECCLRPCSVDVLLSYC</t>
+          <t>GLNTLKKVFQGLHEAIKLINNHVQ</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C364" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>PLYNISQECHTYRWMFDTEMDLVKGPTEPGTGADIVGIETMYLLELNELWKEWVIYISRWKMHSFPPDFFG</t>
+          <t>GFFAFIPKIISSPLFKTLLSAVGSALSSSGEQE</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CYKYAGFIDYFYDELEWPTKGNRESWNSLLRKHVTDHFYKIV</t>
+          <t>MGSELETAMETLINVFHAHSGKEGDKYKLSKKELKDLLQTELSSFLDVQKDADAVDKIMKELDENGDGEVDFQEFVVLVAALTVACNNFFWENS</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,59 +5198,59 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>MAAKILALWLLLAGTVFPQGCCQHWSYGLSPGGKRDLDNFSDTLGNMVEEFPRVEAPCSVFGCAEESPFAKMYRVKGLLASVAERENGHRTFKK</t>
+          <t>ELCEKASKTWSGNCGNTGHCDNQCKSWEGAAHGACHVRNGKHMCFCYFNC</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C367" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>MHWWQDISGNQMGTKLGTNAGDMEQNPW</t>
+          <t>KSCCPNTTGRNIYNTCRLGGGSRERCASLSGCKIISASTCPSDYPK</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>DGHPHNGGCPIMCYDHPFECCRVFGSKNGIV</t>
+          <t>RMEDNRLRENCIPVVLSPWHDPNMMHSHNRFEWKVVWSIYKRDVDDGSLARMNNPKIPRKGWDPKIDIRYVMTAIKAICWC</t>
         </is>
       </c>
       <c r="B369" t="n">
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>MSKFYKIWMIFDPRRVFVAQGVFLFLLAVMIHLILLSTPSYNWLEISAAKYNRVAVAE</t>
+          <t>NITVVMQESGFRNIA</t>
         </is>
       </c>
       <c r="B370" t="n">
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>GLPVCGETCFGGTCNTPGCSCSSWPICTRN</t>
+          <t>ENFFKEIERAGQRIRDAIISAAPAVETLAQAQKIIKGGD</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,11 +5263,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>CYFRNCPIG</t>
+          <t>ATCYCRTGRCATRESLSGVCEISGRLYRLCCR</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CAWYNISCRLGNKGAYCTLTVECMPSCN</t>
+          <t>VNWKKILGKIIKVAK</t>
         </is>
       </c>
       <c r="B373" t="n">
@@ -5289,20 +5289,20 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>IFNSIYHRKCVVKNRCETVSGHKTCKDLTCCRAVIFRHERPEVCRPST</t>
+          <t>VPANAVTESDPAAVALKYHRDAASSERVAAARPGLPPEEQHCENCQFMNPDSAAADWKGCQLFPGKLINLSGWCASWTLRAG</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>GLWETIKNFGKKFTLNILHKLKCKIGGGC</t>
+          <t>GRGREFMSNLKEKLSGVKEKMKNS</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,11 +5315,11 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>RICRCICGRRICRCICGR</t>
+          <t>MELTPREKDKLLLFTAGLVAERRLAKGLKLNYPEAVALISCAIMEGAREGKTVAQLMSEGRTVLTAEQVMEGVPEMIKDVQVECTFPDGTKLVSIHSPIV</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C376" t="n">
         <v>1</v>
@@ -5328,11 +5328,11 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>RWKVFKKIEKVGRNIRDGVIKAGPAIAVVGQAKAL</t>
+          <t>LQNAYQKN</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C377" t="n">
         <v>1</v>
@@ -5341,50 +5341,50 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>GLLDTIKNMALNAAKSAGVSVLNTLSCKLSKTC</t>
+          <t>MSSPTIPSRLYSLLFRRTSTFALTIAVGALFFERAFDQGADAIYEHINEGKLWKHIKHKYENKE</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>MVPPVQVSPLIKLGRYSALFLGVAYGATRYNYLKPRAEEERRIAAEEKKKQDELKRIARELAEDDSILK</t>
+          <t>RNCESLSHRFKGPCTRDSN</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>GPMPQMLLEFKFIPPGQMICVGGNDYRHSMNMWERVLRNTGC</t>
+          <t>KSCCPNTTGRNIYNTCRFGGGSREVCARISGCKIISASTCPSDYPK</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>KNYGNGVHCTKKGCSVDWGYAWANIANNSVMNGLTGGNAGWHN</t>
+          <t>RDSCLMVRRTQMCVYLERCRHAPYNSTIHMWTGNHCLYHADYEHDFTVDF</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
         <v>0</v>
@@ -5393,7 +5393,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RIMIWYASVPQPIFQRDRFQCQDSQVQKVMPHLFCFFMYMSKCPALSPAEQFYYKKRLRFARFPQKAYSQYNESWTMRTTREASCF</t>
+          <t>MSTSVKHREFVGEPMGDKEVTCIAGIGPTYGTKLTDAGFDKAYVLFGQYLLLKKDEDLFIEWLKETAGVTANHAKTAFNCLNEWADQFM</t>
         </is>
       </c>
       <c r="B382" t="n">
@@ -5406,37 +5406,37 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>GLFPKFNKKKVKTGIFDIIKTVGKEAGMDVLRTGIDVIGCKIKGEC</t>
+          <t>LKWRGPREQLNVTKQHNDIFCPSWNSHISMSFHGIVHNMHRPSNDYYCLVGVMRRKSHDTHTNRCNVRFHRASGCFWKNW</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>MEQEQDTPWTQSTEHINIQKKGGGQQTQRPEHPNSTLLMDHYLKITSRAGMHKQIVYWKQWLSLKNPTQDSLKTRVLKRWKLSSKREWIS</t>
+          <t>YWAGSLYRKHCAHICQWDRNCHTMSMIN</t>
         </is>
       </c>
       <c r="B384" t="n">
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>MTPFWRGVSLRPIGASCRDDSECITRLCRKRRCSLSVAQE</t>
+          <t>ECNPAHKNIYGHIVMMV</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
         <v>1</v>
@@ -5445,72 +5445,72 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>QLGELIQQGGQKIVEKIQKIGQRIRDFFSNLRPRQEA</t>
+          <t>MSKFYKIWMIFDPRRVFVAQGVFLFLLAVMIHLILLSTPSYNWLEISAAKYNRVAVAE</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ETYSVTLVNEEKNINAVIKCPDDQFILDAAEEQGIELPYSCRAGACSTCAGKVLSGTIDQSEQSFLDDDQMGAGFLLTCVAYPTSDCKVQTHAEDDLY</t>
+          <t>GFGALFKFLAKKVAKTVAKQAAKQGAKYVVNKQME</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C387" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>LQNAYQKN</t>
+          <t>LMVDKCHNHAHPQFMLNQNEHYQKPG</t>
         </is>
       </c>
       <c r="B388" t="n">
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>YLDESNIGRGCVEFHWPNPTHWYGDGVKLTNQWVALDNRGLLQYFCAKQARWDQEGHKWSELNGKILRYARMPRSIE</t>
+          <t>EYSCYIQRADLHCIYTSLDTGHVNLHDSLWLV</t>
         </is>
       </c>
       <c r="B389" t="n">
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ECNPAHKNIYGHIVMMV</t>
+          <t>GWVQYGMQLSDWVIQCKFSCHDICFLLRGHFQRDMWIGSATMIDQMNHSCVQCVWYLGHPVEPDREMLWCIRKMMFTRAYWRGTSAINQFWYG</t>
         </is>
       </c>
       <c r="B390" t="n">
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>MKTLLLTLVVMTIVCLDLGYTLICFISSHDSVTCAPGENVCFLKSWCDAWCGSRGKKLSFGCAATCPKVNPGIDIECCSTDNCNPHPKLRP</t>
+          <t>RNIDYWKNTWLYVNFLASVPDSKILLDPGNRH</t>
         </is>
       </c>
       <c r="B391" t="n">
@@ -5523,11 +5523,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>GLFSKFNKKKIKSGLFKIIKTAGKEAGLEALRTGIDVIGCKIKGEC</t>
+          <t>EAQYCNIACDSIICDTEIYNDDISVTIRSEWLARS</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C392" t="n">
         <v>1</v>
